--- a/7_zhongkeda_start/detail.xlsx
+++ b/7_zhongkeda_start/detail.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>研究方向</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>详细信息</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +491,11 @@
           <t>微机电系统技术 超精密测量 超精密天文仪器</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>褚家如 教授 博士生导师办公电话：0551-3607504，3602544传真：0551-3600550邮箱: jrchu@ustc.edu.cn实验室主页：http://mane.ustc.edu.cn/个人简介：中国科学技术大学毕业（85年学士\88年硕士\97年博士）,1988年起留校任教。曾任日本东京大学工学部访问学者（90年10月-91年3月、94年9月-12月）;西班牙马德里自治大学访问学者（94年1月-2月）;日本学术振兴会研究员（JSPS Fellow,97年6月-98年3月）和日本国立机械技术研究所NEDO产业技术研究员（98年4月-00年9月）。2000年回到中国科技大学担任教授/博士生导师。曾任精密机械与精密仪器系常务副主任、工程科学学院分党委书记、副院长；现任微系统技术科学研究中心主任，兼任中国科学技术大学超精密工程研究所所长、校学位委员会委员，中国科学院南京天文光学技术研究所兼职研究员/博士生导师。学术服务包括担任中国微米纳米技术学会理事、中国仪器仪表学会理事、精密机械学会副秘书长、安徽省仪器仪表学会常务副理事长，担任《传感技术学报》、《光学精密工程》和《中国科学技术大学学报》等期刊编委，并曾应邀担任《J. Micromechanics and Micro-engineering》 guest editor主编IWMF特辑。入选国家教育部“优秀青年教师资助计划”,“安徽省高校优秀共产党员”,中国电子学会优秀论文奖,享受国务院政府特殊津贴。研究方向： 微机电系统技术超精密测量超精密天文仪器学习经历： 工作经历：学术任职：招生信息：发表文章：1、Corrosion mechanism and surface passivation strategues of polycrystalline silicon electrodes.Sensors and Actuators A: Physical, 2010. 2、Fabrication of cantilever arrays with nano-aperture hollow tips for parallel microplasma etching.，Microelectronic Engineering, 2010. 87(12): p. 2475-24813、Research on the resolution of micro stereo lithography，Chinese Optics Letters, 2009. 7(8): p. 724-727.4、Residual stress characterization of polycrystalline 3C-SiC films on Si(100) deposited from methylsilane, Journal of Applied Physics, v106, 2009, 013505.5、Anodic Oxidation of Polycrystalline 3C-silicon Carbide Thin Films during MEMS Operation, J. Micromech.Microeng.v19, 2009,035024.6、Integration of displacement sensor into bulk PZT thick film actuator for MEMS deformable mirror, Sensors and Actuators,A: Physical, v 147, n 1, Sep 15, 2008, p 242-2477、Preparation of a high-quality PZT thick film with performance comparable to those of bulk materials for applications in MEMS, Journal of Micromechanics and Microengineering, v 18, n 6, Jun 1, 2008, p 0650018、Influences of environmental humidity on micro object handling efficiency, Journal of Micromechanics and Microengineering,v 17, n 2, Feb 1, 2007, p 187-1929、Design,fabrication and characterization of a bulk-PZT-actuated MEMS deformable mirror, Journal of Micromechanics and Microengineering, v 17, n 12, Dec 1, 2007, p 2439-244610、Microdevice assembling by adhesive type probe in humid environment, Review of Scientific Instruments, 76,085104, 2005.11、A novel wet etching process for PZT thin film for application in MEMS, Jpn. J. Appl. Phys., Vol. 43, No. 6B, 200412、Design and Simulation of Microheater Actuated by A PZT Microcantilever for High Density Data Storage; Sensors and Actuators A108(2003), pp7-11;13、Microstructure and electrical properties of PZT thick film prepared by electrostatic spray deposition; Sensors and Actuators A108(2003)，pp2-6;14、Effect of bottom electrodes on microstructures and electric properties of sol-gel derived Pb(Zr0.53,Ti0.47)O3 thin films, Thin Solid Films, 416(2002)，pp66-6715、ESD method for Thick PZT film preparation, Jpn. J. Appl. Phys., Vol. 41(2002), Pt.1, No.6B，pp4317-432016、Novel multi-bridge structured piezoelectric micro-device for scanning force microscopy, J. Vac. Sci. Technol.B.18(6), pp. 3604-3607, Nov/Dec 2000</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>电子碰撞谱学和扫描探针电子能谱学 电子碰撞谱学和扫描探针电子能谱学，开展电子与气相原子分子碰撞的结构与动力学 高分辨分子轨道成像</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>陈向军 教授 博士生导师办公电话：邮箱：个人简介：1984年考入中国科学技术大学，1995年5月获中国科学技术大学原子与分子物理专业博士学位，并获得郭沫若奖学金。现任中国科学技术大学近代物理系教授，合肥微尺度物质科学国家实验室教授，博士生导师，物理学院副院长，校物理与天文学位分委员会委员。1998年在澳大利亚西澳大学物理系做访问学者，2003年受聘为日本东北大学多元物质所客座副教授，2004年首批入选教育部“新世纪优秀人才支持计划”。主要研究方向为电子碰撞谱学和扫描探针电子能谱学，开展电子与气相原子分子碰撞的结构与动力学、高分辨分子轨道成像、固体表面扫描探针电子能谱学等方面的实验和理论研究。在Nature Physics、Phys. Rev. Lett.、Phys. Rev. A、J. Chem. Phys.、Rev. Sci. Instrum.等学术刊物上发表论文120余篇，曾获得中国科学院科技进步二等奖、国家科技进步三等奖和安徽省自然科学二等奖等奖项。主持承担了国家基金重点项目、国家重点基础研究发展计划项目课题、国家基金仪器专项和中国科学院知识创新工程重要方向项目课题等多项科研项目。担任ICPEAC国际会议总务委员会委员(2005-2007)，全国原子分子物理学专业委员会委员(2011-)，《原子与分子物理学报》、《原子核物理评述》编委，《Journal of Atomic and Molecular Sciences》Associate Editor等学术职务。研究方向：电子碰撞谱学扫描探针电子能谱学学习经历：工作经历：学术任职：仪器科学与技术学科点博导中国科学技术大学物理学院教授合肥微尺度物质科学国家实验室教授招生信息：发表文章：</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -540,6 +555,11 @@
           <t>微纳光学 微纳光电器件 超材料与超表面</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>陈杨 特任教授办公电话：0551-6360894邮箱：cyang_phys@ustc.edu.cn主页：https://faculty.ustc.edu.cn/chenyang/zh_CN/index.htm            https://scholar.google.com/citations?user=LViLrFsAAAAJ&amp;hl=zh-CN  个人简介：     陈杨博士，中国科学技术大学工程学院特任教授，博士生导师，国家海外高层次人才引进计划（青年项目）入选者，中科院高层次人才引进计划（青年项目）入选者。2010年本科毕业于中国科学技术大学近代物理系，2016年博士毕业于中国科学技术大学精密仪器与机械系（导师：褚家如教授），之后在美国密苏里科技大学（合作导师：Prof. Xiaodong Yang)和新加坡国立大学（合作导师：Prof. Chengwei Qiu)从事博士后研究员工作，于2021年9月加入中国科学技术大学，组建“纳米光子器件与系统”研究组，主要研究方向包括：微纳光学、微纳光电器件、超表面与超材料等。回国建组后以第一作者身份在Nature、Nature Nanotechnology、Physical Review Letters、Nature Reviews Physics等顶级期刊连续发表论文，受到国内外广泛关注。担任Nano Letters、ACS Nano、Nanoscale以及OSA多个期刊的审稿人，并在CIOP、ICFM、MRM等国际学术会议作邀请报告研究领域：微纳光学，微纳光电器件，超材料与超表面等。教育背景：2006.09-2010.07 中国科学技术大学，近代物理系，本科2010.09-2016.06 中国科学技术大学，精密机械与精密仪器系，博士工作履历:2016.06-2017.02 中国科学技术大学，精密机械与精密仪器系，博士后2017.02-2018.12 美国密苏里科技大学，博士后2019.02-2021.09  新加坡国立大学，博士后2021.09-2022.10  中国科学技术大学，精密机械与精密仪器系，特任研究员2022.11至今 中国科学技术大学，精密机械与精密仪器系，特任教授近年代表性论文Chen Y, et al. Observation of intrinsic chiral bound states in the continuum.Nature, 2022.Chen Y, et al. Chirality-dependent unidirectional routing of WS2 valley photons in a nanocircuit. Nature Nanotechnology, 2022.Chen Y, et al. Can weak chirality induce strong coupling between resonant states?Physical Review Letters, 2022, 128: 146102.Chen Y, et al. Multidimensional nanoscopic chiroptics. Nature Reviews Physics, 2021, 4: 113-124.Chen Y, et al. Spin-controlled wavefront shaping with plasmonic chiral geometric metasurfaces. Light: Science &amp; Applications, 2018, 7: 84.Chen Y, et al. 3D Janus plasmonic helical nanoapertures for polarization-encrypted data storage. Light: Science &amp; Applications, 2019, 8: 45.Chen Y, et al. Chiral metamaterials of plasmonic slanted nanoapertures with symmetry breaking. Nano letters, 2018, 18(1): 520-527.Chen Y, et al. Integrated molar chiral sensing based on high-Q metasurface. Nano Letters, 2020, 20(12): 8696-8703.Chen Y, et al. Direction‐controlled bifunctional metasurface polarizers. Laser &amp; Photonics Reviews, 2018, 12(12): 1800198.Chen Y, et al. Chiral grayscale imaging with plasmonic metasurfaces of stepped nanoapertures. Advanced Optical Materials, 2019, 7(6): 1801467.Chen Y, et al. Spin‐Selective Second‐Harmonic Vortex Beam Generation with Babinet‐Inverted Plasmonic Metasurfaces. Advanced Optical Materials, 2018, 6(19): 1800646.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -567,6 +587,11 @@
           <t>短波光学、微光学技术和超微细加工技术研究 软X射线和真空紫外波段的衍射元件研究 无衬底自支撑的软X射线透射光栅研制</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">付绍军 教授 博士生导师办公电话：邮箱：个人简介：1977年中国科技大学物理系毕业，同时留校从事教学和科研工作。1984年初从物理系调入国家同步辐射实验室，1998年被聘为教授级高级工程师，2000年担任博士生导师。现任国家同步辐射实验室学术委员会委员，中国科技大学光子技术研究所副所长，《光电子技术与信息》和《光学精密工程》杂志编委。1989年起负责建设同步辐射光学实验室，在短波光学、微光学技术和超微细加工技术研究方面取得了一系列成果。率先在国内组织开展了软X射线和真空紫外波段的衍射元件研究工作，研制的软X射线聚焦波带片、软X射线位相型Lnminar光栅和真空紫外全息-离子束刻蚀闪耀光栅已经达到实用水平，替代进口产品使用在同步辐射光束线上；研制的一系列无衬底自支撑的软X射线透射光栅已在惯性约束激光核聚变研究中发挥了重要作用。在国内外学术刊物上发表论文200多篇，获省部级成果奖4项，申请和授权国家发明专利20项。目前承担国家重大科技专项XX专项、军口863等科研项目多项。研究方向：衍射光栅技术微细加工技术学习经历：工作经历：学术任职：仪器科学与技术学科点博导国家同步辐射实验室教授级高级工程师招生信息：发表文章：　 </t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -594,6 +619,11 @@
           <t xml:space="preserve">精密传感与致动  </t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>冯志华 教授 博士生导师办公电话：0551-6360894邮箱：fff@ustc.edu.cn主页：http://lasm.ustc.edu.cn个人简介：研究方向： 致力于压电材料应用研究，包括压电马达，压电变压器以及压电发电装置，精密微位移驱动。精密位移传感器研究，涡流及电容位移传感器。学习经历：1981.9-1987.7 中国科学技术大学，精密机械与仪器系，本科1987.9-1990.7 中国科学技术大学，精密机械与仪器系，硕士研究生1997.9-2005.7 中国科学技术大学，精密机械与仪器系，博士研究生工作经历：1990.07－今 中国科学技术大学 精密机械与精密仪器系学术任职：主要讲授课程：电测技术仪器电路奖励荣誉：2016年中科院优秀研究生导师奖2017年，上银优博指导教师，“基于偏心轮受迫振动的压电马达研究”2015年，日内瓦国际发明展金奖(涡流传感器)　，指导老师优秀研究生导师　2015.01　中国科学技术大学2012年，上银优博指导教师，“压电管式复合驱动器及其应用”2014年，获得合肥第七批专业技术拔尖人才荣誉称号招生信息：发表文章：1、Xinxin Liao, Pang Xide, Liangguo He, Zhihua Feng: Dynamic Mass Isolation for Improving the Moving Efficiency of an Impact Drive Mechanism. IEEE Transactions on Industrial Electronics 11/2019; PP(99):1-1., DOI:10.1109/TIE.2019.29508382、Guofeng Zhao, Jing Ying, Lei Wu, Zhihua Feng: Ultrastable and low noise self-compensation method for circuit thermal drift of eddy current sensors based on analog multiplier. IEEE Transactions on Industrial Electronics 10/2019; PP(99):1-1., DOI:10.1109/TIE.2019.29495113、Yanning Zhou, Jingjing Chang, Xinxin Liao, Zhihua Feng: Ring-shaped Traveling Wave Ultrasonic Motor for High-output Power Density with Suspension Stator. Ultrasonics 10/2019; 102:106040., DOI:10.1016/j.ultras.2019.1060404、Min Qian, Yijun Ren, Zhihua Feng: Interference reducing by low voltage excitation for a debris sensor with triple-coil structure. Measurement Science and Technology 10/2019; 31(2)., DOI:10.1088/1361-6501/ab49c55、Mingxia Li, Weiwei Shao, Xiaoning Jiang, Zhihua Feng: Deconvolution in Intravascular Ultrasound to Improve Lateral Resolution. Ultrasonic Imaging 04/2019; 41(3):016173461983845., DOI:10.1177/01617346198384566、Jing Jing Chang, Xin Xin Liao, Yan Ning Zhou, Zhi Hua Feng: Design of an adaptive stator for bundled piezo-walk motors. Review of Scientific Instruments 04/2019; 90(4):045004., DOI:10.1063/1.50869237、Mingxia Li, Zhihua Feng: An Optimum Imaging Scheme for IVUS Arrays: Eccentric Cylinder Wave Compounding. Ultrasonic Imaging 03/2019; 41(3):016173461983665., DOI:10.1177/01617346198366598、Yijun Ren, Guofeng Zhao, Min Qian, Zhihua Feng: A highly sensitive triple-coil inductive debris sensor based on an effective unbalance compensation circuit. Measurement Science and Technology 11/2018; 30(1)., DOI:10.1088/1361-6501/aaf1199、Yang Ye, Jian Chen, Yi Jun Ren, Zhi Hua Feng: Valve improvement for high flow rate piezoelectric pump with PDMS film valves. DOI:10.1016/j.sna.2018.09.06410、Yi Jun Ren, Wei Li, Guo Feng Zhao, Zhi Hua Feng: Inductive debris sensor using one energizing coil with multiple sensing coils for sensitivity improvement and high throughput. Tribology International 07/2018; 128., DOI:10.1016/j.triboint.2018.07.02511、Fang Sheng Huang, Zhi Hua Feng, Yu Ting Ma, Qiao Sheng Pan: Investigation on high-frequency performance of spiral-shaped trapezoidal piezoelectric cantilever. Modern Physics Letters B 05/2018; 32(17):1850187., DOI:10.1142/S021798491850187712、Fang Sheng Huang, Zhi Hua Feng, Yu Ting Ma, Qiao Sheng Pan, Lian Sheng Zhang, Yong Bin Liu, Liang Guo He: High-frequency performance for a spiral-shaped piezoelectric bimorph. Modern Physics Letters B 04/2018;, DOI:10.1142/S021798491850111713、Wei Li, Yang Ye, Kang Zhang, Zhihua Feng: A Thickness Measurement System for Metal Films Based on Eddy-Current Method With Phase Detection. IEEE Transactions on Industrial Electronics 01/2017; PP(99):1-1., DOI:10.1109/TIE.2017.265086114、Xuejie Ba, Qiaosheng Pan, Bin Ju, Zhihua Feng: Ultrafast Displacement Actuation of Piezoelectric Stacks With Time-Sequence. IEEE Transactions on Industrial Electronics 11/2016; PP(99):1-1., DOI:10.1109/TIE.2016.263111915、Weiwei Shao, Bin Ju, Zhihua Feng, Peiyang Li, Zhangjian Li, Yaoyao Cui: Temperature distribution analysis of piezoelectric transformer with heat couple component. Ferroelectrics 11/2016; 504(1):72-86., DOI:10.1080/00150193.2016.123948116、Qiaosheng Pan, Fangsheng Huang, Jian Chen, Liangguo He, Wei Li, Zhihua Feng: High-Speed Low-Friction Piezoelectric Motors Based On Centrifugal Force. IEEE Transactions on Industrial Electronics 11/2016; PP(99):1-1., DOI:10.1109/TIE.2016.262357817、Mingxia Li, Zhihua Feng: Accurate Young’s modulus measurement based on Rayleigh wave velocity and empirical Poisson’s ratio. Review of Scientific Instruments 07/2016; 87(7):075111., DOI:10.1063/1.495882518、Li Jiao Gong, Cheng Liang Pan, Qiao Sheng Pan, Zhi Hua Feng: Theoretical analysis of dynamic property for piezoelectric cantilever triple-layer benders with large piezoelectric and electromechanical coupling coefficients. Journal of Advanced Dielectrics 06/2016; 6(3):1650017., DOI:10.1142/S2010135X1650017X19、Wei Li, Hongbo Wang, Zhihua Feng: Non-contact online thickness measurement system for metal films based on eddy current sensing with distance tracking technique. The Review of scientific instruments 04/2016; 87(4):045005., DOI:10.1063/1.494723420、Liansheng Zhang, Qian Long, Yongbin Liu, Jie Zhang, Zhihua Feng: Correlation-steered scanning for scanning probe microscopes to overcome thermal drift for ultra-long time scanning. Ultramicroscopy 04/2016; 166., DOI:10.1016/j.ultramic.2016.03.01321、Yi Jun Ren, Yu Ting Ma, Dan Huang, Jian Chen, Zhi Hua Feng: Elastic string check valves can efficiently heighten the piezoelectric pump’s working frequency. Sensors and Actuators A Physical 04/2016; 244., DOI:10.1016/j.sna.2016.04.02622、Fang Sheng Huang, Lian Sheng Zhang, Qiao Sheng Pan, Liang Guo He, Zhi Hua Feng: Investigation of tuning-fork double piezoelectric fans with elastic base. Applied Thermal Engineering 04/2016; 102., DOI:10.1016/j.applthermaleng.2016.03.17223、Bin Ju, Weiwei Shao, Dan Huang, Yang Ye, Zhi Feng: A topology for inductorless actuation of piezoelectric transformer with special driving waveform. IEEE Transactions on Power Electronics 01/2016; 32(2):1-1., DOI:10.1109/TPEL.2016.255137224、Yu Ting Ma, Ce Wang, Xin Tao Yan, Zhi Hua Feng: Note: A valve-type piezoelectric reciprocating pump with secondary resonant vibrator. Review of Scientific Instruments 01/2016; 87(1):016104., DOI:10.1063/1.494041225、Jian Chen, Dan Huang, Zhi Hua Feng: A U-shaped piezoelectric resonator for a compact and high-performance pump system. Smart Materials and Structures 10/2015; 24(10)., DOI:10.1088/0964-1726/24/10/10500926、Gang Yi Yan, Yong Bin Liu, Zhi Hua Feng: A Dual-Stage Piezoelectric Stack for High-Speed and Long-Range Actuation. IEEE/ASME Transactions on Mechatronics 10/2015; 20(5):2637-2641., DOI:10.1109/TMECH.2015.242235127、Jian Chen, Lian Sheng Zhang, Zhi Hua Feng: High-fidelity AFM scanning stage based on multilayer ceramic capacitors. Scanning 09/2015; 38(3)., DOI:10.1002/sca.2125328、Xiao Wang, Yong Bin Liu, Guang Jun Xiao, Cheng Liang Pan, Zhi Hua Feng: Dual-branch reed for resonant cavity wind energy harvester with enhanced performances. ARCHIVE Proceedings of the Institution of Mechanical Engineers Part C Journal of Mechanical Engineering Science 1989-1996 (vols 203-210) 08/2015; 229(12-12):2270-2280., DOI:10.1177/095440621455716829、Bin Ju, Liansheng Zhang, Hongbo Wang, Weiwei Shao, Zhihua Feng: Piezoelectric ceramic acting as inductor for capacitive compensation in piezoelectric transformer. IET Power Electronics 08/2015; 8(10)., DOI:10.1049/iet-pel.2014.057930、Li Jiao Gong, Qiao Sheng Pan, Wei Li, Gang Yi Yan, Yong Bin Liu, Zhi Hua Feng: Harvesting vibration energy using two modal vibrations of a folded piezoelectric device. Applied Physics Letters 07/2015; 107(3)., DOI:10.1063/1.492733131、Gang Yi Yan, Zhi Hua Feng: Voltage proportional control reduces inertial force from an unbalanced weight in a dual-mounted actuator structure used for high performance scanning probe microscopes. Sensors and Actuators A Physical 07/2015; 233., DOI:10.1016/j.sna.2015.07.02832、Qiao Sheng Pan, Liang Guo He, Fang Sheng Huang, Xue Yan Wang, Zhi Hua Feng: Piezoelectric micropump using dual-frequency drive. Sensors and Actuators A Physical 06/2015; 229., DOI:10.1016/j.sna.2015.03.02933、Hongbo Wang, Wei Li, Zhihua Feng: A Compact and High Performance Eddy Current Sensor Based on Meander-Spiral Coil. IEEE Transactions on Magnetics 05/2015;, DOI:10.1109/TMAG.2015.243635534、Guang Jun Xiao, Cheng Liang Pan, Yong Bin Liu, Zhi Hua Feng: In-plane torsion of discal piezoelectric actuators with spiral interdigitated electrodes. Sensors and Actuators A Physical 05/2015; 227., DOI:10.1016/j.sna.2015.03.04235、Jie Zhang, Lian Sheng Zhang, Zhi Hua Feng: Switched capacitor charge pump used for low-distortion imaging in atomic force microscope. Scanning 03/2015; 37(3)., DOI:10.1002/sca.2120336、Hongbo Wang, Wei Li, Zhihua Feng: Note: Eddy current displacement sensors independent of target conductivity. Review of Scientific Instruments 01/2015; 86(1)., DOI:10.1063/1.4906939]37、Bin Ju, Weiwei Shao, Zhihua Feng: Piezoelectric Filter Module Used in Harmonics Elimination for High Efficiency Piezoelectric Transformer Driving. IEEE Transactions on Power Electronics 01/2015; 31(1):1-1., DOI:10.1109/TPEL.2015.2411611承担科研项目：1、压电致动器开关电荷泵驱动方式研究，主持，国家基金委，2012.01-2015.12；2、微创及导管用前视超声成像及治疗器件，参与，国家基金委2018.01-2019.12；3、摆动风扇散热研究，主持，华为，2015.07-2016.07；4、压电振动片共振频率抓捕控制技术，主持，华为，2014.02-2015.025、谐波减速器共振抖动及噪音问题的研究及解决方案，主持，深圳山卓公司，2019.10-2021.10；6、医疗用超声刀前端部分的研发，主持，瑞声生物科技有限公司，2011.09-2012.06；7、亚毫米超螺旋陶瓷纤维调节器的研究，主持，国家自然科学基金委，2006.01 –2008.12专利：1、美国发明专利，Switched capacitor charge pump driver for piezoelectric actuator，2015-07-28US9093925B2；2、发明专利，一种压电超生驱动液体喷射装置，201210517130.3；3、发明专利，一种压电变压器散热装置及压电变压器，201010575707.7；4、发明专利，一种利用电桥分离电抗和电阻微小变化的解调电路，201310462027.8；5、发明专利，一种电涡流位移传感器温度漂移系数的测量装置，201310740208.2；6、发明专利，基于电涡流传感器的导电膜厚度测量系统及方法，201410412326.5；7、发明专利，一种压电振子，201510315555.X；8、发明专利，一种压电马达，ZL 201510895564.0；</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -621,6 +651,11 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>洪义麟 教授 硕士生导师办公电话：邮箱：个人简介： 研究方向：学习经历：工作经历：学术任职：仪器科学与技术学科点硕导国家同步辐射实验室教授级高级工程师   招生信息：发表文章：</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -648,6 +683,11 @@
           <t>超快激光微纳加工技术 超精密光学制造 微纳机械与微纳机器人</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">胡衍雷 教授 博士生导师电话：0551-63602932邮箱：huyl@ustc.edu.cn主页：http://mane.ustc.edu.cn/ 个人简介：胡衍雷，中国科学技术大学教授，博士生导师。本科、博士毕业于中国科学技术大学。先后在中国科大、德国Fraunhofer激光技术研究所、澳大利亚Swinburne University of Technology、美国麻省理工学院（MIT）等机构从事科研工作。主要从事激光微纳制造及相关装备研发，在多种材料加工新机制、光场调控新方法、复合加工新工艺等方面具有良好的研究基础。先后主持国家自然科学基金5 项（优秀青年基金1项，重大研究计划1 项，面上项目2 项，青年基金1 项）。在Nature Photonics, PNAS, Nature Communications, Advanced Materials, Nano Letters等权威期刊发表论文150余篇，被引4300余次。申请国家发明专利十余项。研究成果被期刊封面、编辑推荐、亮点评论及媒体报道90余次。获2020年安徽省自然科学一等奖，2018年中国光学十大进展，2018年日内瓦国际发明展金奖等。担任国际光子学与电磁学研究研讨会分会主席，中国机械工程学会极端制造分会委员会委员，中国微米纳米技术学会高级会员，国际学术期刊《International Journal of Extreme Manufacturing》、《Nanomanufacturing and Metrology》青年编委，《中国激光》青年编委，中国科学院青年创新促进会优秀会员等。研究方向：超快激光微纳加工技术超精密光学制造微纳机械与微纳机器人工作经历：2015.12至今             中国科学技术大学                       副教授、教授2018.09至2019.09   美国麻省理工学院（MIT）        访问学者2014.10至2015.11   澳大利亚斯威本科技大学           博士后2012.08至2015.12   中国科学技术大学                       博士后、特任副研究员主要讲授课程：本科生课程《工程科学实践》《测控系统设计及实践》研究生课程《信息光学》《实用工程软件》招生信息：实验室的方向属于应用前沿研究，适合将来有志于在科研院所、高新技术企业等单位从事基础研究和技术研发的同学。已指导毕业生去向多为出国深造、国内科研院所（科大、合工大、中国工程物理研究院、西科大等）和高新企业研发（寒武纪、华为、中兴通讯、大疆、TP-Link等）。欢迎对本实验室感兴趣的优秀学生联系。发表文章：1.     Dunzhao Wei, Chaowei Wang, Huijun Wang, Xiaopeng Hu, Dan Wei, Xinyuan Fang, Yong Zhang, Dong Wu, Yanlei Hu, Jiawen Li, Shining Zhu, and Min Xiao. Experimental demonstration of a three-dimensional lithium niobate nonlinear photonic crystal. Nature Photonics, 12 (10): 596-601 (2018).2.     Dunzhao Wei, Chaowei Wang, Xiaoyi Xu, Huijun Wang, Yanlei Hu, Pengcheng Chen, Jiawen Li,Yunzhi Zhu, Chen Xin, Xiaopeng Hu, Yong Zhang, Dong Wu, Jiaru Chu, Shining Zhu, and Min Xiao. Efficient nonlinear beam shaping in three-dimensional lithium niobate nonlinear photonic crystals. Nature Communications, 10, 4193 (2019).3.     Jincheng Ni, Shunli Liu, Dong Wu, Zhaoxin Lao, Zhongyu Wang, Kun Huang, Shengyun Ji, Jiawen Li, Zhixiang Huang, Qihua Xiong, Yanlei Hu, Jiaru Chu, and Chengwei Qiu. Gigantic Vortical Differential Scattering as a Monochromatic Probe for Multiscale Chiral Structures. Proceedings of the National Academy of Sciences of the United States of America (PNAS), 118 (2): e2020055118 (2021).4.     Yuxuan Zhang, Shaojun Jiang, Yanlei Hu, Tao Wu, Yiyuan Zhang, Huizeng Li, An Li, Yachao Zhang, Hao Wu, Yinlong Ding, Erqiang Li, Jiawen Li, Dong Wu, Yanlin Song, Jiaru Chu. Reconfigurable Magnetic Liquid Metal Robot for High-performance Droplet Manipulation. Nano Letters,22(7): 2923-2933(2022).5.     Yi Yang, Yachao Zhang, Yanlei Hu, Guoqiang Li, Cong Zhang, Yuegan Song, Longfu Li, Caiding Ni, Nianwei Dai, Yong Cai, Jiawen Li, Dong Wu, and Jiaru Chu. Femtosecond Laser Regulated Ultrafast Growth of Mushroom-Like Architrcture for Oil Repellency and Manipulation. Nano Letters, 21 (21): 9301-9309 (2021).6.     Shaojun Jiang, Yanlei Hu, Hao Wu, Rui Li, Yiyuan Zhang, Chao Chen, Cheng Xue, Bing Xu, Wulin Zhu, Jiawen Li, Dong Wu, and Jiaru Chu. Three-dimensional multifunctional magnetically-responsive liquid manipulator fabricated by femtosecond laser writing and soft transfer. Nano Letters, 20 (10): 7519-7529 (2020). 7.     Suwan Zhu, Yucheng Bian, Tao Wu, Chao Chen, Yunlong Jiao, Zhiwu Jiang, Zhouchen Huang, Erqiang Li, Jiawen Li, Jiaru Chu, Yanlei Hu, Dong Wu, and Lei Jiang. High Performance Bubble Manipulation on Ferrofluid-Infused Laser-Ablated Microstructured Surfaces. Nano Letters, 20 (7): 5513–5521 (2020).8.     Yanlei Hu, Hongwei Yuan, Shunli Liu, Jincheng Ni, Zhaoxin Lao, Chen Xin, Deng Pan, Yiyuan Zhang, Wulin Zhu, Jiawen Li, Dong Wu, and Jiaru Chu, Chiral assemblies of laser-printed micropillars directed by asymmetrical capillary force. Advanced Materials, 32 (31): 202002356 (2020).9.     Dong Wu, Zhen Zhang, Yiyuan Zhang, Yunlong Jiao, Shaojun Jiang, Hao Wu, Chuanzong Li, Chenchu Zhang, Jiawen Li, Yanlei Hu, Guoqiang Li, Jiaru Chu, and Lei Jiang. High-Performance Unidirectional Manipulation of Microdroplet by Horizontal Vibration on Femtosecond Laser-Induced Slant Microwalls Array. Advanced Materials, 32 (48): 2005039 (2020).10.  Shaojun Jiang, Yanlei Hu, Hao Wu, Yachao Zhang, Yiyuan Zhang, Yulong Wang, Yinghui Zhang, Wulin Zhu, Jiawen Li, Dong Wu, and Jiaru Chu. Multifunctional Janus Microplates Arrays Actuated by Magnetic Fields for Water/Light Switches and Bio-Inspired Assimilatory Coloration. Advanced Materials, 31 (15): 1807507 (2019).承担科研项目：1.     国家自然科学基金重大研究计划：自上而下与自下而上相结合的功能基元序构材料制备技术及其在超灵敏探测中的应用（主持）2.     国家自然科学基金面上项目：基于空间光场调控的手性结构高效加工及其在磁驱微机器人中的应用（主持）3.     国家自然科学基金面上项目：超快激光打印结合毛细力驱动的可调谐功能结构自组装及其应用（主持）4.     国家自然科学基金青年基金：超快激光方法制备大面积多功能表面的基础研究（主持） </t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -675,6 +715,11 @@
           <t>先进纳米制造 3D打印 微纳光子学</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              刘之光 特任教授 博士生导师      电子邮箱：liuzg09@ustc.edu.cn 个人主页：http://faculty.ustc.edu.cn/liuzhiguang/zh_CN/index.htm个人简介： 刘之光，中国科学技术大学精密机械与精密仪器系，特任教授，博士生导师，国家级青年人才项目获得者。2013年本科毕业于中国科学技术大学少年班，2019年博士毕业于中国科学院物理研究所，之后于南方科技大学和麻省理工学院从事博士后研究，并于2024年加入中国科学技术大学精密机械与精密仪器系。研究兴趣是发展先进纳米制造技术，致力于解决光学、力学、生物医学等相关领域的应用难题。相关工作以第一/通讯（含共同）作者发表在Science Advances，Nature Communications，Advanced Materials，Laser &amp; Photonics Reviews 等期刊。研究方向：先进纳米制造、3D打印、微纳光子学、显微成像、柔性电子招生信息：欢迎为人正直、热爱科研、工作认真负责、善于沟通与合作的本科生、研究生、博士后、特聘副研究员等加入，具有以下专业背景（包括但不限于）优先：微纳光学、微纳加工、信息光学、机器学习、材料化学等。发表文章：Zhiguang Liu, Huifeng Du, Jiafang Li*, Ling Lu, Zhi-Yuan Li*, Nicholas X. Fang*. “Nanokirigami with giant optical chirality”, Science Advances, 4: eaat4436 (2018). (Highly cited paper)Zhiguang Liu, Yi Xu, Chang‐Yin Ji, Shanshan Chen, Xiangping Li, Xiangdong Zhang, Yugui Yao, and Jiafang Li*. "Fano‐Enhanced Circular Dichroism in Deformable Stereo Metasurfaces", Advanced Materials 32, no. 8 (2020): 1907077.Shanshan Chen#, Zhiguang Liu#, Huifeng Du#. Chengchun Tang#, Chang-Yin Ji, Baogang Quan, Ruhao Pan, Lechen Yang, Xinhao Li, Changzhi Gu, Xiangdong Zhang, Yugui Yao, Junjie Li*, Nicholas X Fang*, Jiafang Li*. "Electromechanically reconfigurable optical nano-kirigami", Nature Communications 12, 1299 (2021).Yutao Tang#, Zhiguang Liu#, Junhong Deng, Kingfai Li, Jiafang Li*, Guixin Li*. "Nano‐Kirigami metasurface with giant nonlinear optical circular dichroism", Laser &amp; Photonics Reviews 14, no. 7 (2020): 2000085.Zhiguang Liu, Huifeng Du, Zhi-Yuan Li*, Nicholas X. Fang*, and Jiafang Li*. “Nano-kirigami metasurfaces by focused-ion-beam induced close-loop transformation”, APL Photonics, 3, 100803 (2018).Zhiguang Liu, Jiafang Li*, Zhe Liu, Wuxia Li, Junjie Li, Changzhi Gu and Zhi-Yuan Li*. “Fano resonance Rabi splitting of surface plasmons”, Scientific Reports, 7: 8010, (2017).Zhiguang Liu, Zhe Liu, Jiafang Li*, Wuxia Li, Junjie Li, Changzhi Gu and Zhi-Yuan Li*. “3D conductive coupling for efficient generation of prominent Fano resonances in metamaterials”, Scientific Reports, 6: 27817 (2016).Qingxian Liu, Yuan Liu, Junli Shi, Zhiguang Liu*, Quan Wang*, and Chuan Fei Guo*. "HighPorosity Foam-Based Iontronic Pressure Sensor with Superhigh Sensitivity of 9280 kPa-1", Nano-Micro Letters 14, no. 1 (2022): 1-12.Ximin Tian#, Zhiguang Liu#, Han Lin, Baohua Jia, Zhi-Yuan Li* and Jiafang Li*. “Five-fold plasmonic Fano resonances with giant bisignate circular dichroism”, Nanoscale, 10, 16630 (2018).Jiajia Mu#, Zhiguang Liu#, et al. “Direct laser writing of pyramidal plasmonic structures with apertures and asymmetric gratings towards efficient subwavelength light focusing”, Optics Express, 23, 22564 (2015).</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -702,6 +747,11 @@
           <t>光学遥感算法原理 光学遥感仪器光机电设计 基于天空一体化超光谱遥感的人工智能系统开发</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       刘诚 教授 博士生导师办公电话：0551-63600892邮箱：chliu81@ustc.edu.cn个人简介：刘诚，2010年博士毕业于德国海德堡大学物理系，博士论文满分1.0分 (最高分1.0，最低分5.0)，同期以总评 Excellent 的成绩毕业于德国马普学会国际学校，随后在美国哈佛大学开展博士后研究。2015年回国任中国科学技术大学教授，2019年任中国科学技术大学精密机械与精密仪器系执行主任， 2022年获国家自然科学基金委“杰青”项目资助，主要研究方向为天空地一体化超光谱遥感与人工智能技术；研究成果在国家重大科技重大专项“高分辨率对地观测系统”成果表彰中获特等奖；担任国家重点研发计划“臭氧及前体物多源卫星高分辨率遥感与集成解析技术”项目负责人，国家重点研发计划“地球与导航”专项总体专家组成员。研究成果以第一/通讯作者发表在 Science Advances、Light: Science &amp; Applications、Environmental Science &amp; Technology 等著名期刊上，获国家发明专利十余项。研究成果获何梁何利基金科学与技术创新奖，科学探索奖、中国青年科技奖、国家科技进步二等奖 (第2完成人) 、安徽省科学技术一等奖 (第1完成人)、中国专利优秀奖等学术奖励。主要研究方向：（1）超光谱遥感算法研发（2）超光谱遥感仪器研制（3）基于天空一体化超光谱遥感的人工智能系统开发学习经历：[1] 2006——2010德国海德堡大学 &gt; 物理/光学专业 &gt; 博士学位 &gt; 研究生工作经历：[1] 2015-至今中国科学技术大学，教授 (Professor)[2] 2012-2015美国哈佛大学-史密松天体物理中心，研究学者（Research Scholar）[3] 2010-2011德国马普化学所卫星遥感中心, 博士后（Post-Doctor）[4] 2006-2010海德堡大学物理系, 博士生助理研究员（Doctoral Research Assistant）学术任职：[1] 2019.2-至今Atmospheric Measurement Techniques期刊编辑[2] 2016.9-至今中国光学学会第一届环境光学专业委员会委员[3] 2015.12-至今中国科学院城市大气环境研究卓越创新中心核心骨干成员招生信息：考生需具备扎实的基础数理化知识，熟练的光机电算能力和良好的科学直觉，对超光谱遥感有着浓厚的兴趣。主要学术奖励：刘诚（2/10），国家科学技术进步二等奖（2019年）刘诚（1/1）何梁何利科学与技术创新奖(2023年)刘诚（1/1）科学探索奖（2023年）刘诚（1/13）国家中长期科学和技术发展规划纲要（2006－2020年）16个重大科技专项之“高分辨率对地观测系统”成果表彰获特等奖（2023年）刘诚（1/9）安徽省科学技术一等奖（2022年）刘诚（1/1），第十六届中国青年科技奖（2020年）刘诚（1/12），中国生态环境十大科技进展（2021年）刘诚（1/5）中国专利优秀奖（2023年）刘诚（1/8）中国光电仪器品牌“金燧奖”金奖（2023年）刘诚（1/1）第二届安徽省创新争先奖（2021年）主要讲授课程： 本科生课 《新生“科学与社会”研讨课》 本科生课 《交叉研究实践》 本科/研究生课 《环境光学遥感》10篇代表性论著：1. Ambient formaldehyde and mortality: A time series analysis in China.Science Advances (IF = 14.957).20222. Kilometer-level glyoxal retrieval via satellite for anthropogenic volatile organic compound emission source and secondary organic aerosol formation identification.Remote Sensing of Environment (IF = 13.85).20223. Stereoscopic hyperspectral remote sensing of the atmospheric environment: Innovation and prospects.Earth-Science Reviews (IF = 12.038).20224. First Chinese ultraviolet–visible hyperspectral satellite instrument implicating global air quality during the COVID-19 pandemic in early 2020.Light: Science &amp; Applications (IF =20.257).20225. First sulfur dioxide observations from the environmental trace gases monitoring instrument (EMI) onboard the GeoFen-5 satellite.Science Bulletin (IF = 20.577).20216. Improved Anthropogenic SO2 Retrieval from High-Spatial-Resolution Satellite and its Application during the COVID-19 Pandemic.Environmental Science &amp; Technology (IF = 11.357).20217. Ground-based hyperspectral stereoscopic remote sensingnetwork: A promising strategy to learn coordinated control ofO3 and PM2.5 over China.Engineering (IF = 12.834).20218. Stereoscopic Monitoring: A Promising Strategy to Advance Diagnostic and Prediction of Air Pollution.Bulletin of the American Meteorological Society (IF = 9.116).20219. First observation of tropospheric nitrogen dioxide from the Environmental Trace Gases Monitoring Instrument onboard the GaoFen-5 satellite.Light: Science &amp; Applications (IF =20.257).202010.Satellite UV-Vis spectroscopy: implications for air quality trends and their driving forces in China during 2005-2017.Light: Science &amp; Applications (IF = 20.257).2019</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -729,6 +779,11 @@
           <t>基于振动的故障诊断技术 基于人工智能手段的故障诊断和寿命预测 燃料电池电堆的测试和运行可靠性分析</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>毛磊 特任研究员 博士生导师办公电话：0551-63607985邮箱：leimao82@ustc.edu.cn个人简介：主要研究包括系统动态检测和数据处理技术、人工智能方法如深度学习、迁移学习等在新能源电池系统、智能制造设备中的应用。此外，还包括采用无损检测方法，对新能源电池在复杂运行条件下的性能衰减机理进行监测和分析。 研究方向：新能源电池系统测试、智能诊断与控制；智能制造设备运行可靠性分析及预测性维护；信号处理、无损检测方法；学习经历：2012.11 英国爱丁堡大学 基础设施与环境 博士2007.07 中国科学技术大学 机械电子工程 硕士2004.07 合肥工业大学 交通工程 学士工作经历：2018.05-至今 中国科学技术大学精密机械与精密仪器系 特任研究员2013.11-2018.03 英国拉夫堡大学 航天与汽车工程系 助理研究员2012.01-2013.10 英国朴次茅斯大学 土木工程与测量系 助理研究员学术任职：国际工程师协会（International Association of Engineers）会员国际预测与健康管理组织（Prognostics and Health Management Society）会员中国振动工程协会故障诊断专业委员会理事主要讲授课程：研究生课程《机电控制系统分析与设计》；研究生课程《机械振动理论》招生信息：发表文章：近五年论文发表情况：1、Mao, L., Jackson, L., Huang, W., Li, Z., Ben, D. (2020). Polymer electrolyte membrane fuel cell fault diagnosis and sensor abnormality identification using sensor selection method, Journal of Power Sources, 447, 227394.2、Huang, W., Li, N., Selesnick, I., Shi, J., Wang, J., Mao, L., Jiang, X., Zhu, Z. (2020). Non-convex group sparsity signal decomposition via convex optimization for bearing fault diagnosis. IEEE Transactions on Instrumentation and Measurement, Early Access.3、Abuker, Y. Y. A., Liu, Z., Mao, L. (2019). Fault classification of polymer electrolyte membrane fuel cell system based on empirical mode decomposition. 2nd World Congress on Condition Monitoring, WCCM 2019, December 2-5, Singapore.3、Liu, Z., Abuker, Y. Y. A., Mao, L. (2019). A novel method of PEM fuel cell fault diagnosis based on signal-to-image conversion. 2nd World Congress on Condition Monitoring, WCCM 2019, December 2-5, Singapore.4、Pan, W. T., Abuker, Y. Y. A., Mao, L. (2019). Investigation of feature effectiveness in fault diagnosis of PEM fuel cell system. The 10th IEEE Prognostics and System Health Management Conference. PHM-2019, October 25-27, Qingdao, China.5、Mao, L., Jackson, L. (2018). Effect of sensor set size on polymer electrolyte membrane fuel cell fault diagnosis. Sensors, 18, 2777.6、Mao, L., Jackson, L., Davies, B. (2018). Effectiveness of a novel sensor selection algorithm in PEM fuel cell on-line diagnosis. IEEE Transactions on Industrial Electronics. 65, 7301-7310.7、Mao, L.,Jackson, L., Davies, B. (2018). Investigation of PEMFC fault diagnosis with consideration of sensor reliability. International Journal of Hydrogen Energy. 43, 16941-16948.8、Mao, L., Goodall, P., Jackson, L., West, A. (2018). Enhanced condition monitoring of the machining process using wavelet packet transform, European Safety and Reliability Conference 2018, 17-21 June, 2018, Trondheim, Norway.9、Vasilyev, A., Mao, L., Jackson, L., Andrews, J. (2018). The use of bond graph modelling in polymer electrolyte membrane fuel cell fault diagnosis, European Safety and Reliability Conference 2018, 17-21 June, 2018, Trondheim, Norway10、Lisa Jackson, Melanie-Jane Stoneman, Heather Callaghan, Hanjing Zhang, Cristina Latsou, Sarah Dunnett, Lei Mao.(2018). Influencing Operational Policing Strategy by Predictive Service Analytics. 51st Hawaii International Conference on System Sciences, 03-06 January, 2018, Waikoloa Village, HI, United States.11、Eleni Tsalapati, Thomas W. Jackson, William Johnson, Lisa Jackson, Andrey Vasilyev, Andrew West, Lei Mao, Ben Davies (2018). The Role of Sematic Technologies in Diagnostic and Decision Support for Service Systems. 51st Hawaii International Conference on System Sciences, 03-06 January, 2018, Waikoloa Village, HI, United States.12、Mao, L., Lu, Y. (2017). Experimental study of sensitivity-aided application of artificial boundary condition frequencies for damage identification. Engineering Structures, 134, 253-261.13、Mao, L., Barnett, S.J. (2017). Investigation of toughness of ultra high performance fibre reinforced concrete (UHPFRC) beam under impact loading. International Journal of Impact Engineering, 99, 26-38.14、Mao, L. *,Jackson, L., Dunnett, S.J. (2017). Fault diagnosis of practical polymer electrolyte membrane (PEM) fuel cell system with data-driven approaches. Fuel Cells, 17, 247-258.15、Mao, L., Jackson, L. (2016). Selection of optimal sensors for predicting performance polymer electrolyte membrane fuel cell. Journal of Power Sources, 328, 151-160.16、Mao, L., Jackson, L. (2016). Comparative study on prediction of fuel cell performance using machine learning approaches. Lecture Notes in Engineering and Computer Science. 1, 52-57.17、Mao, L., Lu, Y. (2016). Selection of optimal artificial boundary condition (ABC) frequencies for structural damage identification. Journal of Sound and Vibration, 374, 245-259.承担科研项目：国家自然科学基金面上项目，不完备数据下车用燃料电池电堆故障诊断的迁移学习方法研究，2020.1-2023.12，主持；安徽省自然科学基金面上项目，基于深度学习和逻辑推理的燃料电池故障诊断关键技术研究，2019.7-2022.6，主持；上海交通大学机械系统与振动国家重点实验室开放课题，多源数据下车用燃料电池实时故障诊断深度学习方法研究，2020.1-2021.12，主持；中国科学院人才计划项目，2018-2020，主持；中国科学技术大学人才引进启动经费，2018-2021，主持</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -756,6 +811,11 @@
           <t>奇点光学 激光微纳加工 微纳光学</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">倪劲成  特任教授办公电话：0551-63602932电子邮箱：njc@ustc.edu.cn主页：https://faculty.ustc.edu.cn/nijincheng/zh_CN/个人简介倪劲成，2019年博士毕业于中国科学技术大学精密机械与精密仪器系，之后在新加坡国立大学从事博士后研究，并于2023年加入中国科学技术大学精密机械与精密仪器系，担任特任教授，博士生导师。国家海外高层次人才引进计划（青年项目）入选者，中科院高层次人才引进计划（青年项目）入选者。主要研究方向为奇点光学和激光微纳加工，长期从事新型涡旋结构光场与微纳结构相互作用方面的研究。近年来，研究成果以第一/通讯作者身份发表在Science, Nature Photonics，PNAS, Light: Science &amp; Applications, ACS Nano, Nano Letters, Advanced Functional Materials等国际权威期刊上。工作经历：2023.12-至今，中国科学技术大学，特任教授2023.2-2023.11，中国科学技术大学，特任研究员2019.6-2023.2，新加坡国立大学，博士后研究员学习经历:2014-2019，中国科学技术大学精密机械与精密仪器系，博士主持项目：1.中国科学技术大学引进人才启动经费2.国家自然科学基金面上基金3.国家自然科学基金优秀青年科学基金项目(hw)招生信息：欢迎物理基础扎实、动手能力强、积极性高的研究生和本科生加入，实验室将提供完备的科研条件和丰厚的奖励津贴。课题组也长期招聘对激光微纳加工、奇点光学、光场调控、微纳光学等方向感兴趣的博士后、特任副研究员，请邮件联系我。主要学术论文：1. J. Ni#, C. Huang#, L.-M. Zhou, M. Gu, Q. Song*, Y. Kivshar*, C.-W. Qiu*, Multidimensional phase singularities in nanophotonics. Science 374, eabj0039 (2021).2. J. Ni#, S. Ji#, Z. Wang, S. Liu, Y. Hu, Y. Chen, J. Li, X. Li, J. Chu, D. Wu*, C.-W. Qiu*, Unidirectional unpolarized luminescence emission via vortex excitation. Nature Photonics 17, 601-606 (2023).3. J. Ni, S. Liu, D. Wu*, Z. Lao, Z. Wang, K. Huang*, S. Ji, J. Li, Z. Huang, Q. Xiong, Y. Hu*, J. Chu, and C.-W. Qiu*, Gigantic vortical differential scattering as a monochromatic probe for multiscale chiral structures. Proceedings of the National Academy of Sciences U. S. A. 118, e2020055118 (2021).4. J. Ni#, S. Liu#, G. Hu, Y. Hu, Z. Lao, J. Li*, Q. Zhang, D. Wu*, S. Dong, J. Chu, and C.-W. Qiu*, Giant helical dichroism of single chiral nanostructures with photonic orbital angular momentum. ACS Nano 15, 2893-2900 (2021).5. J. Ni, S. Liu, Y. Chen, G. Hu, Y. Hu, W. Chen, J. Li, J. Chu, C.-W Qiu*, and D. Wu*, Direct Observation of Spin–Orbit Interaction of Light via Chiroptical Responses. Nano Letters 22, 9013-9019 (2022).6. J. Ni, C. Wang, C. Zhang, Y. Hu*, L. Yang, Z. Lao, B. Xu, J. Li, D. Wu*, and J. Chu, Three-dimensional chiral microstructures fabricated by structured optical vortices in isotropic material. Light: Science &amp; Applications 6, e17011 (2017).  7. J. Ni, Z. Wang, Z. Li, Z. Lao, Y. Hu*, S. Ji, B. Xu, C. Zhang, J. Li*, D. Wu*, and J. Chu, Multifurcate assembly of slanted micropillars fabricated by superposition of optical vortices and application in high-efficiency trapping microparticles. Advanced Functional Materials 27, 1701939 (2017). 8. J. Ni, Y. Hu*, S. Liu, Z. Lao, S. Ji, D. Pan, C. Zhang, B. Xu, J. Li, D. Wu*, and J. Chu, Controllable double-helical microstructures by photonic orbital angular momentum for chiroptical response. Optics Letters 46, 1401-1404 (2021).9. S. Liu#, J. Ni#, C. Zhang, X. Wang, Y. Cao, D. Wang, S. Ji, D. Pan, R. Li, H. Wu, C. Xin, J. Li*, Y. Hu, G. Li, D. Wu*, and J. Chu, Tailoring optical vortical dichroism with stereometamaterials. Laser &amp; Photonics Reviews 16, 2100518 (2021).10. W. Wang#, C. Hu#, J. Ni#, Y. Ding, J. Weng, B. Liang*, C.‐W. Qiu*, and J.‐C. Cheng*, Efficient and high‐purity sound frequency conversion with a passive linear metasurface. Advanced Science 9, 2203482 (2022). </t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -783,6 +843,11 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>潘挺睿 教授工学博士，博士生导师通讯地址：苏州工业园区独墅湖科教创新区仁爱路166号 (215000)电话：(0512)- 62881382E-mail：tingrui@ustc.edu.cn             网页链接: https://sz.ustc.edu.cn/rcdw_show/26.html  个人简介：       潘挺睿教授是中国科学技术大学讲席教授，博士生导师，美国医学与生物工程院（AIMBE）和英国皇家化学学会（RSC）Fellow，国家高层次人才计划入选者，归国前为美国加州大学戴维斯分校终身正教授。2000年本科毕业于清华大学；2005年博士毕业于美国明尼苏达大学；2005-2006年成为明尼苏达大学医学院的研究科学家；2006年起受聘于加州大学戴维斯分校生物医学工程系。在加州大学任职期间，潘挺睿教授创建了加州大学微纳创新实验室（MiNI Lab）并担任首席科学家。他于2009年创立了加州大学“宏伟”国际研究交流计划（GREAT Program）并任主任教授。在2013-2016年度，潘教授担任加州大学微纳米制造中心（Center for Nano and Micro-Manufacturing）主任教授。他曾同时兼任两份顶级国际生物医学工程核心期刊IEEE Transactions on Biomedical Engineering和Annals of Biomedical Engineering副主编，并担任美国微纳米技术应用大赛（uCAN）的共同主席，美国科学基金会（NSF）的评审组专家。归国后，潘教授加入中国科学技术大学苏州高等研究院，筹建其首个医工交叉的新型研发机构—智能医疗器械研究中心（iMED|Center for Intelligent Medical Equipment and Devices），并被国内外多所知名高校与科研院所聘为客座教授。潘教授所带领的科研团队于2011年在国际上首次提出柔性离电传感机理（FITS|Flexible Iontronic Sensing），其拥有包括超高灵敏度，超薄柔性，超高光学透明度，环境可集成性等多项独特的性能优势，并成功应用于医疗器械、消费电子、新能源等领域的新兴智能感知场景，目前已成为第四代柔性触觉感知的核心技术（Lab Chip, 2018, pp.217-248和Adv Mater, 2020, 2003464, pp.1-25)。潘教授团队在高水平期刊和会议杂志上发表论文超过100余篇（其中包括Nature和Science子刊，Advanced Materials，Lab Chip和Biomaterials等高影响力杂志），并获得了20余项国际专利授权。鉴于潘挺睿教授在其领域取得的突出学术创新贡献及科研转化成果，他荣获了包括美国科学基金会（NSF）杰出青年奖（CAREER）和科技前沿创新奖（EFRI），施乐（Xerox）基金会奖、全球消费电子（CES）创新奖、加州大学杰出贡献奖和杰出青年教授奖、中国自然科学基金海外合作基金、中国创新创业大赛一等奖等诸多重要奖项。主要研究方向：研发新一代柔性触觉传感技术、数字微流控与芯片技术、及穿戴式健康与个性化医疗技术，并广泛应用于眼科，骨科，心血管，神经科，重症监护与辅助生殖重要科研情况：1．英国皇家化学会士(RSC Fellow) 国外 2018.07 英国皇家化学会士 2．美国医学与生物工程院会士(AIMBE Fellow) 国外 2017.11 美国医学与生物工程院 3．中国自然科学基金海外合作研究基金国家级 2016.07 中国自然科学基金委 4．加州大学戴维斯分校杰出青年教授国外 2011.11 加州大学戴维斯分校 5．加州大学戴维斯分校杰出贡献奖国外 2010.07 加州大学戴维斯分校6．美国国家科学基金会杰出青年奖国外 2009.11 美国国家科学基金会 7．美国国家科学基金会科技前沿创新奖国外 2009.11 美国国家科学基金会 近年代表性论文：1.Yu Cheng, Chenhui Guo, Sen Li, Ka Deng, Jie Tang, Qian Luo, Shiwu Zhang, Yu Chang, *and Tingrui Pan*,“Aquatic Skin Enabled by Multi-Modality Iontronic Sensing,”Advanced Functional Materials,2205947,Sep.20222.Yu Chang, Liu Wang, Ruya Li, Zhichao Zhang, Qi Wang, Junlong Yang, ChuanFeiGuo*, Tingrui Pan*, First Decade of Interfacial Iontronic Sensing: From Droplet Sensors to Artificial Skins, Adv. Mater. 2021, 33, 2003464.3.Hongyan Sun, Ning Pan, Xin Jin, Ka Deng, Zhiduo Liu, Cheng-Te Lin, Tingrui Pan*, Yu Chang*, Active-powering pressure-sensing fabric devices, J. Mater. Chem. A 2020, 8, 358.4.Yimin Zhu, Jie Tang, Xin Jin, Tingrui Pan, Yu Chang*, Zhenguo Yang*, Additive preparation of conductive circuit based on template transfer process using a reusable photoresist, ACS Appl. Mater. Inter. 2020, 12, 7679-76895.Z. Zhu, R. Li, and T. Pan†, “Imperceptible Epidermal-Iontronic  Interface for Wearable Sensing,” Adv Mater, vol. 30, 1705122, pp. 1-9,  Jan 2018. (Featured as a Cover Image)6.R. Li, Y. Si, Z. Zhu, Y. Guo, Y. Zhang, N. Pan, G. Sun, and T. Pan†, “Supercapacitive Iontronic Nanofabric Sensing,” Adv Mater, vol. 29, 1700253, pp. 1-8, April 2017. (Featured as a Cover Image)7.B. Nie, R. Li, J. Cao, J. D. Brandt, and T. Pan†, “Flexible Transparent  Iontronic Film for Interfacial Capacitive Pressure Sensing,” Adv Mater,  vol. 27(39), pp. 6055-6062, Oct 2015.8. S. Li, N. Pan, Z. Zhu, R. Li, B. Li, J. Chu, G. Li, Y. Chang†, and T.  Pan†, “All-in-One Iontronic Sensing Paper,” Adv Funct Mater, vol.  29(11), 1807343, Jan 2019. (Featured as a Cover Image)9.  Y. Chang, L. Wang, R. Li, Z. Zhang, Q. Wang, J. Yang, C. Guo *and T.  Pan†, ”First Decade of Interfacial Iontronic Sensing: From  DropletSensors to Artificial Skins,” Adv Mater, vol. 33, pp. 20364 , Feb  2021.10. Z.  Fang, Y. Ding, Z. Zhang, F. Wang, Z. Wang, H. Wang, and T. Pan†,  “Digital Microfluidic Meter-on-Chip,” Lab Chip, Themed Collection of  Wearable and Implantable Sensors, vol. 20, pp. 722-733, Dec 2019.  (Featured as a Cover Image)11.Y. Yang, S. Xing, Z. Fang, and T. Pan†, “Wearable Microfluidics:  Fabric-based Digital Droplet Flowmetry for Perspiration Analysis,” Lab  Chip, vol. 17, pp. 926-935, Feb 2017.12.Y. Mao, Y. Pan, X. Li, B. Li, J. Chu, and T. Pan†, “High-Precision Digital  Droplet Pipetting Enabled by a Plug-and-Play Microfluidic Pipetting  Chip,” Lab Chip, vol. 18, pp. 2720-2729, July 2018. (Featured as a Cover  Image)13.Z. Fang, A.I. Li, H. Liu, and T. Pan†, “Digital Droplet Infusion,” Lab  Chip, vol. 21, pp. 502-512, Feb 2021. (Featured as a Cover Image)14.Z. Zhang, Z. Zhu, B. Bazor, S. Lee, Z. Ding, and T. Pan†, “FeetBeat: A  Flexible Iontronic Sensing Wearable Detects Pedal Pulses and Muscular  Activities,” IEEE Transactions on Biomedical Engineering, vol. 66(11),  pp. 3072-3079, February 2019.15.J. Heikenfeld, A. Jajack, J. Rogers, P. Gutruf, L. Tian, T. Pan†, R. Li,  M. Khine, J. Kim, J. Wang, and J. Kim, “Wearable Sensors: Modalities,  Challenges, and Prospects,” Lab Chip, vol. 18, pp. 217-248, Jan 2018.  (Featured as a Cover Image)16.F. D. Villarreal, L.E. Contreras-Llano, M. Chavez, Y. Ding, J. Fan, T.  Pan, and C. Tan, “Synthetic Microbial Consortia Enable Rapid Assembly of  Pure Multi-Protein Translation Machinery,” Nature Chem Bio, vol. 14,  pp. 29-35, Nov 2017.申请和获授权专利情况1.Droplet-based Capacitive Pressure Sensor 美国 US9,170,166 2015-10-272.Droplet-based Capacitive Pressure Sensor 美国 US9,459,171 2016-10-043.Micropatterned Textile for Fluid Transport 美国 US9,480,462 2016-11-014.Droplet-based Capacitive Pressure Sensor 美国 US9,739,679 2017-08-225.Capacitive Pressure Sensing Using Ionic Film Sensors 美国 US10,126,191 2018-11-136.Supercapacitive Iontronic Nanofabric Sensing 美国 US10,481,021 2019-11-197.Apparatus and methods for digital droplef flowmetry 美国 US10,900,818 2019-8-12</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -810,6 +875,11 @@
           <t>智能材料与结构 振动与噪声控制 系统动力学</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">基本信息：孙帅帅，特任教授，博士生导师电话：63607820邮箱：sssun@ustc.edu.cn个人简介：孙帅帅现任中国科学技术大学特任教授，博士生导师。历任日本东北大学助理教授，澳大利亚伍伦贡大学Research Fellow等。入选国家高层次人才计划（四青人才），中科院人才引进项目，安徽省人才引进项目等。曾入选澳大利亚政府教育与培训部未来领袖计划并获得香港长江集团特别资助。其一直致力于智能机电系统、磁流变技术及其在机器人和振动控制应用等方面的研究工作。研究方向涵盖外骨骼机器人、移动机器人、汽车和高速列车动力学性能调控等。现已出版著作1部，著作章节2章，授权11项专利，发表SCI期刊论文110余篇，其中80余篇期刊论文发表在JCR-Q1期刊上，所发表的论文数次获得期刊年度亮点论文奖，封面论文，国际会议最佳论文、最佳墙报论文奖等。现其担任领域内五本主流SCI期刊学术主编或客座主编。担任中国、澳大利亚、捷克和哈萨克斯坦等国家自然科学基金的评审专家。先后主持中国国家自然科学基金2项，澳大利亚国家自然科学基金1项，日本国家自然科学基金2项，安徽省重点研发项目1项，中科院重点实验室培育基金1项。作为主要创始人，共同组建了中科大-爱博智能联合实验室，担任实验室副主任。研究方向：机器人，振动与噪声控制，智能机电系统，车辆动力学。学习经历：1/2013-12/2016博士, 澳大利亚伍伦贡大学. 9/2007-7/2011学士, 中国矿业大学（北京）.工作经历：2/2022–Present   特任教授，中国科学技术大学精密机械与精密仪器系9/2020–1/2022   特任研究员，中国科学技术大学精密机械与精密仪器系4/2019–8/2020   助理教授, 日本东北大学5/2016–4/2019   博士后，澳大利亚伍伦贡大学学术任职：期刊学术主编:Shock and Vibration (SCI IF: 1.628)，Mathematical Problems in Engineering (SCI IF: 1.009)  期刊客座主编：Smart Materials and Structures (SCI IF: 3.543), Journal of Intelligent Materials Systems and Structures (SCI IF: 2.582),Frontiers in Materials (SCI IF: 2.689), ASME Transaction - Journal of Nondestructive Evaluation, Diagnostics and Prognostics of Engineering Systems.代表性论文：T. Jin*, Z.      Liu, S. Sun*; Z. Ren, L. Deng, B. Yang, M. Christie, W. Li,      Development and Evaluation of a Versatile Semi-active Suspension System      for High-Speed Railway Vehicles, Mechanical Systems and Signal Processing, 2020, 135, 106338.(Corresponding author) 2.     J. Yang, D. Ning, S. Sun, J. Zheng, H. Lu, M. Nakano, S. Zhang, H. Du, W. Li, A Semi-active Suspension Using a Magnetorheological Damper with Nonlinear Negative-Stiffness Component, Mechanical Systems and Signal Processing, 147, 107071, 2020. (Corresponding author) M. Christie, S. Sun*, D. Ning, H. Du, S. Zhang*, W. Li, A Highly      Stiffness-Adjustable Robot Leg for Enhancing Locomotive      Performance, Mechanical Systems and Signal Processing, 2019, 126,      458-468.  (Corresponding author) S. Sun, X. Tang, J. Yang, D.      Ning, H. Du, S. Zhang, W. Li, A new generation of      magnetorheological vehicle suspension system with tunable stiffness and      damping characteristics, IEEE Transactions on      Industrial Informatics, 2019, 15(8), 4696 – 4708. 5.     L. Ren #, S. Sun#, G. Casillas-Garcia, M. Nancarrow, G. Peleckis, M. Turdy; K. Du, X. Xu, W. Li, L. Jiang, S. Dou, Y. Du, Liquid Metal-based Magnetoactive Slurry for Stimuli-responsive Mechanically Adaptive Electrodes，Advanced Materials, 2018, 30(35), 1802595, 12. (Co-first author with L. Ren)  S. Sun, J. Yang, W.H. Li, H.      Du, G. Alici, T.H. Yan, and M. Nakano, Development of an isolator working      with magnetorheological elastomers and fluids, Mechanical Systems and      Signal Processing, 2017, 83, 371-384, 18. S. Sun, H.X. Deng, H. Du,      W.H. Li, J. Yang, G.P. Liu, G. Alici, and T.H. Yan, A Compact Variable      Stiffness and Damping Shock Absorber for Vehicle Suspension, IEEE-ASME      Transactions on Mechatronics, 2015, 20(5), 2621-2629, 12.S. Sun,      H.X. Deng, H. Du, W.H. Li, G. Alici, and M. Nakano, An Adaptive Tuned      Vibration Absorber Based on Multilayered MR Elastomers, Smart      Materials and Structures, 2015, 24, 045045, 31. (2016 most cited paper) S. Sun, D. Ning, J. Yang, H.      Du, S.W. Zhang, and W.H. Li, A seat suspension with a rotary      magnetorheological damper for heavy duty vehicles, Smart Materials &amp;      Structures, 2016, 25, 105032,18. B. Harris #, S. Sun#, and W.H. Li, Improving Stability and Curving      Passing Performance for Railway Vehicles with a Variable Stiffness MRF      Rubber Joint, Smart      Materials and Structures, 2017, 26,      035055, 2. (Co-first      author with B. Harris), (featured article)承担科研项目：1.        国家自然科学基金优秀青年科学基金项目(hw)，2021-2024，主持。2.        高端制造创新型人才国际合作培养项目，2022 年创新型人才国际合作培养项目，留学基金委，2022-2025，共同执行人。3.        蔚来汽车横向项目，基于高性能磁流变阻尼器的整车动力学特性控制研究，主持。4.        高速列车可控转向架系统关键力学问题研究，中科院材料力学行为与设计重点实验室重点方向培育基金，2021-2023 (主持)。5.        基于多传感融合的肌力评定与意图识别系统，中科大-爱博智能机器人联合实验室，2021-2023 (主持)。6.        面向精密仪器与精密加工的全悬浮式磁流变隔振系统研发，安徽省重点研发计划，2021-2023 (主持)。7.        新型磁流变弹性体橡胶节点技术开发，中车株洲电力机车有限公司，2020-2023 (参与)。8.        具有快速响应和感知功能的磁流变人工肌肉及其机理研究, 中国国家自然科学基金青年科学基金项目，2021-2023 (主持)。9.        中科院人才项目启动经费，2020-2023 (主持). </t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -837,6 +907,11 @@
           <t>基本物理对称性测量 原子磁力仪 共磁力仪</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>盛东 教授 博士生导师办公电话：0551-63607460邮箱:dsheng@ustc.edu.cn实验室主页：http://staff.ustc.edu.cn/~dsheng/通讯地址：中国科学技术大学  精密机械与精密仪器系  科技实验楼东楼116室个人简介： 研究方向：原子器件，精密测量学习经历：博士，2011，马里兰大学，物理系学士，2005，中国科技大学，近代物理系工作经历：08/2016至今，教授，中国科技大学，精密机械与精密仪器系08/2014-07/2016，研究助理，美国国家标准局和科罗拉多大学，原子器件组06/2011-07/2014，博士后，普林斯顿大学，物理系学术任职：招生信息：发表文章：1、D. Sheng, A Kabcenell and M. V. Romalis, Phys. Rev. Lett. 113, 163002 (2014)2、M. V. Romalis, D. Sheng, B. Samm, and T. G. Walker, Phys. Rev. Lett. 113, 188901 (2014)3、D. Sheng, S. Li, N. Dural and M. V. Romalis, Phys. Rev. Lett. 110, 160802 (2013)4、D. Sheng, J. Zhang, and L. A. Orozco, Phys. Rev. A 87, 063412 (2013)5、D. Sheng, J. Zhang, and L. A. Orozco, Rev. Sci. Instrum. 83, 043106 ( 2012)6、S. Li, P. Vachaspati, D. Sheng, N. Dural, and M. V. Romalis, Phys. Rev. A 84, 061403(R) (2011)承担科研项目：基金委面上项目11974329，2020-2024基金委面上项目11774329，2018-2022</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -864,6 +939,11 @@
           <t xml:space="preserve">新型原子力显微术及其纳米表征应用 微纳米测量技术以及微纳加工 </t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>陈宇航 副教授 硕士生导师电话：0551-63600214；13965064483邮箱:chenyh@ustc.edu.cn个人简历：陈宇航副教授于2000年本科毕业于中国科技大学精密机械与精密仪器系，2005年获中国科学技术大学精密机械与精密仪器系博士学位，2006年至2008年任中国科学技术大学工程科学学院博士后，2008年任中国科学技术大学精密机械与精密仪器系讲师,2010年任中国科学技术大学精密机械与精密仪器系副教授。陈宇航副教授的科研方向主要集中在扫描探针显微镜仪器校准方法、表面纳米计量、新型原子力显微镜成像表征技术的研发及应用。他与微纳米工程实验室团队成员设计制备了多种微纳米尺度参考样块，发展了针尖和样品结构耦合作用、液相原子力显微镜成像机制以及内部纳米结构检测等理论和方法。 主要研究方向：新型原子力显微术及其纳米表征应用、微纳米测量技术以及微纳加工。学习经历：工作经历：学术任职：招生信息：发表文章：</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -891,6 +971,11 @@
           <t>人工肌肉与仿生机器人 智能移动机器人 双臂协作机器人</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>董二宝 副教授办公电话：邮箱：ebdong@ustc.edu.cn个人简介： 一直从事机器人领域的研究，旨在通过机器人仿生结构、智能感知及运动控制等方面的基础研究，设计研制新型机器人系统，提升机器人对复杂环境和多样任务的适应性，推动机器人在非结构化场景实际应用。承担国家自然科学基金、国家重大科研仪器设备研制专项、国家重点研发计划等科研项目20余项，先后研制出陆地越障机器人、水下机器鱼、可变体飞行器结构、六足机器人、四足机器人、仿生软体机器人、巡检机器人、双臂协作机器人等十多种机器人系统；部分成果在电力运维、工业生产等领域应用，获省部级科技进步奖2项。发表学术论文100余篇，获授权发明专利10项，其中多篇论文获国际学术会议最佳论文奖励或期刊高被引论文奖励。研究方向： 仿生机器人，具体包括人工肌肉与仿生软体机器人、智能感知与双臂协作机器人、人机共融与移动操作机器人、生物光学仿体三维打印、可变体飞行器智能变形结构等。学习经历：2001.09-2005.07 中国科学技术大学，精密机械与精密仪器系，本科2007.01-2007.04 香港浸会大学，计算机系，博士交换生2005.09-2010.06 中国科学技术大学，精密机械与精密仪器系，博士工作经历：2010.06-2012.10 中国科学技术大学，力学博士生后流动站，博士后2012.11-2018.03 中国科学技术大学，精密机械与精密仪器系，特任副教授2018.04 至今   中国科学技术大学，精密机械与精密仪器系，副教授2014.04-2019.03 中国科大先研院-合肥雄鹰智能机器人联合实验室，主任2017.09-2019.03 安徽省桐城市，人民政府副市长（挂职）2019.04 至今   中国科大先研院-国网安徽电科院电力机器人联合实验室，主任学术任职： 中国复合材料学会智能复合材料专委会委员、安徽省机器人学会机器人工程专业院长联席委员会副秘书长、安徽省机器人标准化技术委员会委员、安徽省服务机器人产业创新战略联盟专家委员会委员等。主要讲授课程： 本科生课 《机电控制系统设计与实践》 本科生课 《机器人设计与制作》 本科生课 《科技写作与表达》 本科生课 《科学与社会》研讨课奖励荣誉： 安徽省“115”多功能双臂机器人研发创新团队带头人荣誉称号，中国科学技术大学“仲英青年学者”荣誉称号，唐立新教学名师奖（2020），优秀班主任（2020），优秀学生社团指导教师（2020） 国际学术会议最佳论文奖励：CLAWAR国际爬行与行走机器人国际会议最佳技术论文奖与应用创新奖（2015）、IEEE RCRA国际实时计算与机器人会议最佳学生论文奖（2016）、IEEE ICMA国际机电一体化与自动化会议最佳论文奖（2019） 仿生学著名期刊《Journal of Bionic Engineering》高被引论文奖励 （2017） 安徽省教学成果特等奖（排名第一），安徽省教学成果二等奖（排名第四），安徽省科技进步奖三等奖（排名第二），中国轻工业联合会科技进步奖三等奖（排名第二）在研科研项目：[1] 国家重点研发计划项目“面向电力行业的作业机器人系统研究及应用”子课题“配网带电作业机器人技术研究”，2019.06~2022.05，主持[2] 国家自然科学基金面上项目“多足软体机器人仿生结构设计与多介质环境运动机理研究”，2018.01~2021.12，主持[3] 校引进人才科研启动专项经费项目“类人双臂协作机器人关键技术研究”，主持招生信息： 欢迎对机器人领域感兴趣的机械、仪器、力学、电子信息、自动化、计算机等相关专业的同学和青年学者加入我们研究组。近年发表代表作论文：[1] Qiqiang Hu, Erbao Dong* , Dong Sun*, Soft Gripper Design Based on the Integration of Flat Dry Adhesive, Soft Actuator, and Microspine，IEEE Transactions on Robotics，2021，Online[2]  Hu Jin, Erbao Dong*, Min Xu*, Jie Yang, A Smart and Hybrid Composite Finger with Biomimetic Tapping Motion for Soft Prosthetic Hand, Journal of Bionic Engineering, 2020, 17(3):484-500.[3]  Yin Zhu, Jiawen Hao, Weihua Li, Jie Yang and Erbao Dong*, A new robotic tactile sensor with bio-mimetic structural colour inspired by Morpho butterflies, Bioinspiration &amp; Biomimetics, 2019, 14(5):1-13.[4]  Chunshan Liu, Erbao Dong*, Min Xu, Gursel Alici, Jie Yang, Locomotion analysis and optimization of actinomorphic robots with soft arms actuated by shape memory alloy wires, International Journal of Advanced Robotic Systems, 2018, 15(4):1-14.[5]  Xiang Lv,Hongyu Chen, Guangli Liu, Shuwei Shen, Qiang Wu, Chuanzhen Hu, Jialuo Li, Erbao Dong*, Ronald X. Xu*, Design of a portable phantom device to simulate tissue oxygenation and blood perfusion,Applied Optics, 2018, 57(14):3938-3946.[6] Hu Jin, Erbao Dong*, Min Xu, Qirong Xia, Shuai Liu, Weihua Li and Jie Yang, Tunable smart digital structure (SDS) to modularly assemble soft actuators with layered adhesive bonding, Smart Materials and Structures, 2018, 27(1):1-12.[7]  He Huang, Erbao Dong*, Min Xu, Jie Yang, Kin Huat Low, Mechanism design and kinematic analysis of a robotic manipulator driven by joints with two degrees of freedom (DOF), Industrial Robot: An International Journal, 2018, 45(1):34-43.[8]  Shuwei Shen, Haili Wang, Yue Xue, Li Yuan, Ximing Zhou, Zuhua Zhao, Erbao Dong*, Bin Liu, Wendong Liu, Barrett Cromeens, Brent Adler, Gail Besner, William Ray, Brad Hoehne, Ronald Xu*, Freeform fabrication of tissue-simulating phantom for potential use of surgical planning in conjoined twins separation surgery, Scientific Reports, 2017, 7(1):11048.[9] Hu Jin, Erbao Dong*, Gursel Alici*, Shixin Mao, Min Xu, Chunshan Liu, K H Low, Jie Yang, A starfish robot based on soft and smart modular structure (SMS) actuated by SMA wires, Bioinspiration &amp; Biomimetics, 2016, 11(5):1-9.[10] Hu Jin, Erbao Dong*, Min Xu, Chunshan Liu, Gursel Alici, Jie Yang, Soft and smart modular structures actuated by Shape Memory Alloy (SMA) wires as tentacles of soft robots, Smart Materials and Structures, 2016,25(8):1-10.[11] Dongping Lu, Erbao Dong*, Chunshan Liu, Min Xu, Jie Yang, Generation and analysesof the reinforced wave gait for a mammal-like quadruped robot,Journal of Intelligent &amp; Robotic Systems, 2016, 82(1): 51-68.[12] Erbao Dong, Minjie Wang, Zuhua Zhao, Shidi Li, Yanjun Xie, Ronald Xu*, 3D fuse deposition manufacturing of tissue-simulating phantom for biomedical optical imaging, Journal of Biomedical Optics, 2015, 20(12):121311.[13] Zhirong Wang, Erbao Dong*, Min Xuand Jie Yang, Circling turning locomotion of a new multiple closed-chain-legs robot with hybrid-driven mechanism, Advanced Robotics, 2015, 29(24):1637-1648.[14] Xiaoguang Zhang, Jinhong Hu, Shixin Mao, Erbao Dong*, Jie Yang, Design and property analysis of a hybrid linear actuator based on shape memory alloy, Smart Materials and Structures, 2014, 23(12):1-14.[15] Shixin Mao, Erbao Dong*, Hu Jin, Min Xu, Shiwu Zhang, Jie Yang, Kin Huat Low, Gait study and pattern generation of a starfish-like soft robot with flexible rays actuated by SMAs, Journal of Bionic Engineering,2014, 11(3): 400-411.[16] Qiqiang Hu, Erbao Dong*, Gang Cheng, Hu Jin, Jie Yang, Dong Sun, Inchworm-inspired soft climbing robot using microspine arrays, IEEE/RSJ International Conference on Intelligent Robots and Systems (IROS 2019), November 04-8, 2019, Macao, China. [17] Jiawen Hao, Yin Zhu and Erbao Dong*, An Optical Tactile Sensor with Structural Color Using Deep Learning Method, The 2019 IEEE International Conference on Mechatronics and Automation (ICMA 2019), August 4-7, 2019, Tianjin,China.[18] Yin Zhu, Min Xu, Hu Jin, Jie Yang, Erbao Dong*, Chromatic surface microstructures on bionic soft robots for non-contact deformation measurement, IEEE International Conference on Robotics and Automation (ICRA 2017), May 29-June 3, 2017, Singapore, Singapore.[19] Shixin Mao, Erbao Dong*, Hu Jin, Min Xu, Kin Huat Low, Locomotion and Gait Analysis of Multi-limb Soft Robots Driven by Smart Actuators, IEEE/RSJ International Conference on Intelligent Robots and Systems (IROS 2016), October 09-14, 2016, Daejeon, South Korea. 授权国家发明专利：[1] 配网带电作业机器人的遥操作方法和动作轨迹库构建方法，专利号201910544244.9[2] 生物光学仿体三维打印生产线和方法，专利号201811505318.X[3] 一种UV光固化血红蛋白颗粒制备生物光学仿体的三维打印系统和方法，专利号201811505354.6[4] 一种基于形状记忆合金-柔体复合结构的柔性操作手，专利号201510250616.9[5] 一种基于双斜面偏转关节的机器鱼，专利号201510250572.X[6]  一种基于微管道冷却的形状记忆合金驱动器，专利号201510250636.6[7]  自由活动动物实验连接线解旋装置，专利号201510109725.9。[8]  一种混合驱动式形状记忆合金直线驱动装置，专利号201410317646.2[9]  一种基于混合驱动机构的多足移动装置，专利号201310273443.3[10] 一种弹性足与轮式运动机构结合的复合变形移动机器人，专利号201310163677.2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -918,6 +1003,11 @@
           <t xml:space="preserve">机械系统动力学  </t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>干方建 副教授 硕士生导师电话：0551-3600551邮箱：fjgan@ustc.edu.cn个人简介：1987年毕业于合肥工业大学，并分别于1991年和2002在合肥工业大学获得工学硕士和工学博士学位。曾获安徽省高等学校省级优秀科技成果二等奖。 发表论文30余篇。主要研究方向：机械系统动力学学习经历：1987年毕业于合肥工业大学，并分别于1991年和2002在合肥工业大学获得工学硕士和工学博士学位。工作经历：学术任职：招生信息：发表文章：</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -941,6 +1031,7 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -968,6 +1059,11 @@
           <t>LAMOST高精度光纤定位单元关键技术研究 双回转光纤单元定位装置 并行可控式光纤定位系统</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>胡红专 副教授 硕士生导师办公电话：0551-3600551邮箱：huhz@ustc.edu.cn 个人简介：男，1964年9月出生，汉族，副教授。1980年考入中国科学技术大学精密机械与精密仪器系学习，1988年7月研究生毕业留校任教至今。长期从事基础课教学。自1996年至今，作为主要成员参与国家大科学LAMOST光纤定位技术研究，先后研制出双回转光纤定位单元研制及光纤定位中间实验系统的研制， 自2005年科大承接LAMOST焦面光纤定位装置的研制任务以后，一直参与工程研制。共发表论文数十篇，专利4项。主要研究方向：学习经历：工作经历：学术任职：招生信息：发表文章： 论 文 名 称发表刊物、会议名称金刚石刀具研磨质量的影响因素 《机械制造》双回转光纤单元定位装置《中国科学技术大学学报》并行可控式光纤定位系统《天体物理学报》 LAMOST专集LAMOST双回转光纤定位单元的零定位装置《机械设计》LAMOST高精度光纤定位单元关键技术研究《仪器仪表学报》增刊New type Optical Fiber Positioning Unit Device for LAMOSTProceedings of SPIE，2002， 4837获奖情况：成 果 名 称获奖名称、等级或鉴定单位，时间双回转光纤定位单元的研制LAMOST工程指挥部2000.10</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -989,6 +1085,11 @@
       <c r="E21" t="inlineStr">
         <is>
           <t>计算机视觉 机器视觉与控制 智能检测及诊断</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>姓名：金一职称：副教授邮箱：jinyi08@ustc.edu.cn主页：http://hsvl.ustc.edu.cn研究领域： 测试技术及仪器、计算机视觉、智能检测及诊断等个人简介： 主要从事计算机视觉、高速图像测量、三维测量、智能检测技术及装置等相关领域的研究，研发了系列高速相机、高速3D扫描仪、飞行器故障检测仪器等。近五年，先后主持国家973计划课题、国家自然科学基金重大仪器课题、国家重点研发计划课题、工信部智能制造专项课题、国家自然科学基金、安徽省重大专项等10余项科研项目；在国际/国内学术期刊或学术会议上发表学术论文60余篇，包括CVPR、IEEE Transactions on Industrial Informatics、IEEE Transactions on Neural Networks and Learning System、IEEE Transactions on Multimedia、IEEE Transactions on Circuits and Systems for Video Technology、IEEE Transactions on Instrument and Measurement、Photonics Research、Optics Express、Optics Letter、Applied Energy、Energy、Renewable &amp; Sustainable Energy Reviews、Measurement Science and Technology、Measurement、机械工程学报等领域内有影响力的期刊，申请及授权发明专利30余项；研制了图像分辨率1280×1024时采集帧率15000帧/秒的高速摄像测量系统和测量范围±950mm、重复精度10微米以下的超高速大视场3D激光轮廓测量仪，并广泛应用于国防试验基地、航空制造维护基地、火星探测器着陆试验等；获得一等及二等科研奖励7项，其中省部级以上奖励5项。教育背景：2003.09-2007.07 江南大学，过程装备与控制工程系，本科2008.09-2013.06 中国科学技术大学，精密机械与精密仪器系，博士工作履历：2013.06-2016.04 中国科学技术大学，力学博士生后流动站，博士后2016.04-2018.12 中国科学技术大学，精密机械与精密仪器系，特任副研究员2019.01 至今  中国科学技术大学，精密机械与精密仪器系，副教授2020.01 至今  安徽省航空设备测控与逆向工程重点实验室 副主任主要讲授课程：      本科生课程《自动控制原理》近三年代表性论文:（1）Lin Chen, Huaian Chen, , Zhixiang Wei, Xin Jin, Xiao Tan, Yi Jin*, Enhong Chen，Reusing the Task-specific Classifier as a Discriminator: Discriminator-free Adversarial Domain Adaptation，CVPR, 2022（2）Yuxuan Chen, Ben Wang, Qiongwei Li, Yujun Zhong, Yi Jin*, Changan Zhu, Field-of-view-enlarged single-camera 3-D shape reconstruction, IEEE Transactions on Instrumentation and Measurement，2022（3）钟雨君, 陈宇璇, 范鑫, 阚艳, 金一*, 竺长安，可变视角下大范围视觉高分辨率快速测量，机械工程学报，2022（4）Zheng Sun, Minghui Duan, Yabing Zheng, Yi Jin*, Jinjin Zheng, Xin Fan, Intensity diffusion: a concealed cause of fringe distortion in fringe projection profilometry，Photonics Research, 2022（5）Minghui Duan, Huaian Chen, Zheng Sun, Yabing Zheng, Yi Jin*, Jinjin Zheng, Changan Zhu, Quasiperiodic phase coding for long-depth-range 3-D measurements of moving objects，IEEE Transactions on Instrumentation and Measurement，2022（6）Xiao Tan, Huaian Chen, Kai Xu, Chunmei Xu, Yi Jin*, Changan Zhu, Jinjin Zheng，High Dynamic Range Imaging for Dynamic Scenes with Large-Scale Motions and Severe Saturation，IEEE Transactions on Instrumentation and Measurement，2022（7）Kai Xu, Huaian Chen, Chunmei Xu, Yi Jin*, Changan Zhu，Structure-Texture Aware Network for Low-Light Image Enhancement，IEEE Transactions on Circuits and Systems for Video Technology，2022（8）Xiao Tan, Huaian Chen, Kai Xu, Yi Jin*, Changan Zhu，Deep SR-HDR: Joint Learning of Super-Resolution and High Dynamic Range Imaging for Dynamic Scenes，IEEE Transactions on Multimedia，2021（9）Zheng Sun, Yi Jin*, Minghui Duan, Xin Fan, Changan Zhu, Jinjin Zheng，3-D Measurement Method for Multireflectivity Scenes Based on Nonlinear Fringe Projection Intensity Adjustment，IEEE Transactions on Instrumentation and Measurement，2021（10）Minghui Duan, Yi Jin*, Huaian Chen, Jinjin Zheng, Changan Zhu, Enhong Chen，Automatic 3-D Measurement Method for Nonuniform Moving Objects，IEEE Transactions on Instrumentation and Measurement，2021（11）Huaian Chen, Chenggang Hou, Minghui Duan, Xiao Tan, Yi Jin*, Panlang Lv, Shaoqian Qin，Single Image Specular Highlight Removal on Natural Scenes，PRCV，2021（12）Huaian Chen, Yi Jin*, Minghui Duan, Changan Zhu, Enhong Chen, DOF: A Demand-Oriented Framework for Image Denoising, IEEE Transactions on Industrial Informatics，2021（13）Huaian Chen, Yi Jin*, Guoqiang Jin, Changan Zhu, Enhong Chen, Semi-supervised Semantic Segmentation by Improving Prediction Confidence, IEEE Transactions on Neural Networks and Learning Systems, 2021（14）Huaian Chen; Yi Jin*; Kai Xu; Yuxuan Chen; Changan Zhu, Multiframe-to-Multiframe Network for Video Denoising, IEEE Transactions on Multimedia, 2021（15）Yuchen Hu,Minghui Duan,Yi Jin*,Changan Zhu,Enhong Chen,Chunmei Xu, Shading-based absolute phase unwrapping, Optics Letters, 2021（16）Yabing Zheng, Yi Jin*, Minghui Duan, Changan Zhu, Enhong Chen, Joint coding strategy of the phase domain and intensity domain for absolute phase retrieval，IEEE Transactions on Instrumentation and Measurement, 2021（17）Minghui Duan, Yi Jin*, Huaian Chen, Yan Kan, Changan Zhu, Enhong Chen, Dynamic 3-D shape measurement in an unlimited depth range based on adaptive pixel-by-pixel phase unwrapping, Optics Express, 2020（18）Zheng Sun, Yi Jin*, Minghui Duan, Yan Kan, Changan Zhu, and Enhong Chen, Discriminative repair approach to remove shadow-induced error for typical digital fringe projection, Optics Express, 2020（19）M. Waqar Akrama, Guiqiang Li, Yi Jin*, Xiao Chen, Changan Zhu, Ashfaq Ahmad, Automatic detection of photovoltaic module defects in infrared images with isolated and develop-model transfer deep learning, Solar Energy, 2020（20）Minghui Duan, Yi Jin*, Chunmei Xu, Xiaobo Xu, Changan Zhu, Enhong Chen, Phase-shifting profilometry for the robust 3-D shape measurement of moving objects, Optics Express, 2019奖励荣誉（1）2019年获中国电子学会技术发明奖二等奖（2）2019年获安徽省科学技术进步奖一等奖（3）2019年获安徽省机械工业技术发明奖一等奖（4）2020年获中国机械工业科学技术进步奖二等奖（5）2020年获中国汽车工业科学技术进步奖一等奖（6）2020年获安徽省电子学会科学技术进步奖一等奖（7）2021年获中国机械工业科学技术进步奖二等奖</t>
         </is>
       </c>
     </row>
@@ -1010,6 +1111,11 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>金熠办公电话：邮箱：个人简介：主要研究方向：学习经历：工作经历：学术任职：招生信息：发表文章：</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1029,6 +1135,11 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>个人简介： 金虎副教授于2011年本科毕业于合肥工业大学测控技术与仪器系，2016年获中国科学技术大学精密机械与精密仪器系博士学位，毕业后留校从事博士后研究工作，2018年至今任精密机械与精密仪器系特任副研究员、副教授，从事形状记忆合金理论探索、驱动应用及多尺度仿生机器人创成研究。近年来发表期刊&amp;会议论文30余篇，含Nat. Mach. Intell., Adv. Mater.，RSC旗舰期刊Mater. Horizons（期刊Back Cover），机械电子顶刊IEEE-ASME Trans. Mechatron. 和仿生工程旗舰期刊Bioinspir. Biomim. 等，多次获得期刊亮点内容以及IEEE机器人国际会议Best Student Paper Award-Finalist。授权30余项发明专利。主持国家自然科学基金、安徽省自然科学基金、安徽省重点研发基金、博士后面上基金和中央高校基本科研业务费专项基金等多项。成果受自然正刊、自然子刊、AM等论文的大量引用及央视、新华社、科技日报等报道。研究方向：智能材料与仿生机器人、机器人控制、康复机器人及智能装备。更多信息详见个人主页http://faculty.ustc.edu.cn/jinhu/zh_CN/index.htm</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1056,6 +1167,11 @@
           <t>精密天文仪器 机器视觉测量 计算机软件</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>刘志刚 高级工程师 硕士生导师电话:0551-63600550邮箱:liuzg@ustc.edu.cn个人简历：刘志刚老师于1994年本科毕业于中国科技大学精密机械与仪器系，1997年获中国科技大学精密机械与仪器系工学硕士学位，并留校任教。科研方向为测控技术与智能信息处理主要研究内容为计算机视觉研究及控制软件研发。作为骨干参加过多项大中型科研项目，例如LAMOST望远镜光纤定位装置、海洋采油平台一变多控系统、上海世博会开幕式动感矩阵项目等等。 主要研究方向：精密天文仪器、机器视觉测量、计算机软件。 学习经历：工作经历：学术任职：招生信息：发表文章：</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1083,6 +1199,11 @@
           <t>机器视觉测量：三维坐标测量 机器人视觉：无人自主小车的视觉导航、机械手视觉定位 图像处理： 图像特征检测、识别和图像融合</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">李为民 副教授 硕士生导师电话：0551-63606194邮箱：liwm@ustc.edu.cn主页：http://staff.ustc.edu.cn/~liwm/个人简介：李为民副教授1993年毕业于合肥工业大学机械工程系获学士学位，1996年毕业于中国科技大学精密机械与精密仪器系获硕士学位，1996年7月至今在中国科技大学精密机械与精密仪器系任教，2004年起任副教授。2006年毕业于中国科技大学精密机械与精密仪器系获工学博士学位。科研方向主要集中在机器视觉、机电控制方面的研发。基于非控制点的图像信息，实现对摄像机的高精度的标定，用于三维坐标测量和视觉导航、定位中。主要研究方向：机器视觉测量：三维坐标测量。 机器人视觉：无人自主小车的视觉导航、机械手视觉定位。 图像处理： 图像特征检测、识别和图像融合。学习经历：工作经历：学术任职：招生信息：发表文章：  </t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1110,6 +1231,11 @@
           <t>高通量微流控皮升液滴打印技术及其在数字PCR中的应用研究 新型高带宽高空间频率复合式压电变形镜研究 214 及以上单元单压电变形镜制备及其控制技术研究</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>李保庆 副教授 硕士生导师电话：(0551)- 63600214邮箱：bqli@ustc.edu.cn实验室网页:http://mane.ustc.edu.cn个人简介：中国科学技术大学学士、硕士与博士。2003年在中国科学技术大学工程科学学院参加工作，先后任助教、讲师、副教授。2004年-2006年在香港理工大学机械工程系任助理研究员，2013年-2015年，2016年7-11月在美国加州大学戴维斯分校访问助理教授。主持及参与多项国家自然科学基金课题。研制成功了国内技术指标领先的压电薄膜变形镜，在高分辨率成像领域有重要应用价值。主持研制的新型压电冲击打印平台，可高通量产生皮升体积的微量液滴，在抗生素检测、药物筛选等生化分析领域拥有广阔应用前景；已在Applied optics, Lab on a chip, Biomicrofluidics,光学精密工程等专业杂志发表论文二十余篇。目前研究方向为微光机电系统技术，自适应光学技术，微流控芯片技术，生物医疗仪器等。主持及参与多项国家自然科学基金课题。研制成功了国内技术指标领先的压电薄膜变形镜，在天文高分辨率成像领域有重要应用价值。主持研制的新型压电冲击打印平台，可高通量产生皮升体积的微量液滴，在抗生素检测、药物筛选等生化分析领域拥有广阔应用前景；已在Applied optics, Lab on a chip, Biomicrofluidics, 光学精密工程等专业杂志发表论文三十余篇，申请两项国际专利，多项国内专利。学习经历：1995.09-2008.06，中国科学技术大学，精密机械与精密仪器系，学士，硕士，博士。工作经历：2003.07-至今年在中国科学技术大学工程科学学院参加工作，先后任助教、讲师, 副教授；学术任职：主要讲授课程：精密测量技术基础，机械制图及CAD招生信息：主要论著：1、Yang Pan, Tuo Ma, Qi Meng, Yuxin Mao, Kaiqin Chu, Yongfan Men, Tingrui Pan, Baoqing Li*, Jiaru Chu. Droplet digital PCR enabled by microfluidic impact printing for absolute gene quantification. Talanta, 2020, 211: 120680.2、Sen Li, Jiaru Chu, Baoqing Li, Yu Chang*, Tingrui Pan*. Handwriting Iontronic Pressure Sensing Origami. ACS applied materials &amp; interfaces, 2019, 11(49): 46157-46164.3、Sen Li,  Ning Pan,  Zijie Zhu,  Ruya Li,  Baoqing Li,  Jiaru Chu,  Guanglin Li,  Yu Chang*, Tingrui Pan*. All‐in‐One Iontronic Sensing Paper. Advanced Functional Materials, 2019, 29(11): 1807343.4、Tuo Ma, Shixin Sun, Baoqing Li*, JiaruChu. Piezoelectric peristaltic micropump integrated on a microfluidic chip. Sensors and Actuators A: Physical, 2019, 292: 90-96.5、Yuxin Mao, Yang Pan, Xuan Li, Baoqing Li*, Jiaru Chu, and Tingrui Pan*. High-precision digital droplet pipetting enabled by a plug-and-play microfluidic pipetting chip. Lab on a Chip, 2018, 18(18): 2720-2729.6、Jinzhen Fan, Fernando Villarreal, Brent Weyers, Yunfeng Ding, Kuo Hao Tseng, Jiannan Li, Baoqing Li*, Cheemeng Tan*, and Tingrui Pan*, Multi-dimensional studies of synthetic genetic promoters enabled by microfluidic impact printing, Lab on a Chip, 2017, 17(13): 2198-2207承担科研项目：1、国家自然科学基金面上项目《高通量微流控皮升液滴打印技术及其在数字PCR中的应用研究》，（51675505），2017/1-2020/12；2、国家自然科学基金青年基金项目《新型高带宽高空间频率复合式压电变形镜研究》，（11303019），2014/1-2016/12；3、中国科学院天文光学技术重点实验室开放课题《214 及以上单元单压电变形镜制备及其控制技术研究》，（CX2090090019）， 2013/12-2015/12；4、科技部973计划子课题《微纳结构的功能特性与数字模型》，（HH2090090010），2011/1-2015/12；5、中科院重要方向培育项目《固体激光器谐振腔相位调制关键技术研究》，（CX2090090017），2013/1 - 2014/12；6、国家自然科学基金面上项目《超声原子力显微术的内部纳米结构成像机制和系统研究》，（GG209009032)， 2012/1-2015/1。</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1137,6 +1263,11 @@
           <t>飞秒激光加工技术 三维生物打印技术及应用 微纳功能表面及功能器件</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">李家文 副教授 硕士生导师电话号码：0551-63601476电子邮箱：jwl@ustc.edu.cn网页：http://mane.ustc.edu.cn  个人简介：李家文，博士，副教授，硕士生导师。2011年获中国科学技术大学测试计量技术及仪器专业博士学位，2011年至2013年为中国科学技术大学博士后，2015年至2016年为美国加州大学圣地亚哥分校（UCSD）纳米工程系访问学者。主持国家自然科学基金面上项目3项、科技部重点研发计划课题、安徽省重大科技专项、航空科学基金、安徽省自然科学基金、中国博士后科学基金、企业技术开发等，获2013年获得浙江省科学技术一等奖、2014年中国科学技术大学第三届青年教师教学基本功竞赛二等奖、2016年国家自然科学基金委机械工程学科十大优秀结题项目、2018年中国光学十大进展等，共计发表论文100余篇，其中以第一作者或通讯作者发表影响因子10.0以上论文20余篇，参与制定国际标准（ISO 11039:2012)和国家标准（GB/T 29190-2012）各一项。主要研究方向：飞秒激光加工技术、微纳功能表面及器件、三维打印技术与应用、结构色机理及加工方法、环境检测仪器主要讲授课程：本科课程《机械设计基础I》、《机械制图及CAD》 招生信息：研究组实验条件良好，科研氛围浓厚，欢迎感兴趣同学报考本组研究生，也欢迎本科生做课题探索发表文章：1. Deng Pan,Dong Wu, Peng-Ju Li, Sheng-Yun Ji, Xuan Nie, Sheng-Ying Fan, Guo-Yang Chen, Chen-Chu Zhang, Chen Xin, Bing Xu, SuWan Zhu, Ze Cai, YanLei Hu, JiaWen Li, JiaRu Chu. Transparent Light-Driven Hydrogel Actuator Based on Photothermal Marangoni Effect and Buoyancy Flow for Three-Dimensional Motion. Advanced Functional Materials, 31, 202009386, 20212. Jincheng Ni, Shunli Liu, Guangwei Hu, Yanlei Hu, Zhaoxin Lao, Jiawen Li, Qing Zhang, Dong Wu, Shaohua Dong, Jiaru Chu, Chengwei Qiu. Giant Helical Dichroism of Single Chiral Nanostructures with Photonic Orbital Angular Momentum. ACS Nano, 15(2): 2893-2900, 20213. Rui Li , Dongdong Jin , Deng Pan , Shengyun Ji , Chen Xin , Guangli Liu , Shengying Fan, Hao Wu, Jiawen Li, Yanlei Hu, Dong Wu Li Zhang , Jiaru Chu. Stimuli-Responsive Actuator Fabricated by Dynamic Asymmetric Femtosecond Bessel Beam for In Situ Particle and Cell Manipulation. ACS Nano, 26;14(5):5233-5242,20204. Chao Chen, Zhouchen Huang, Yunlong Jiao, Yiyuan Zhang, Jiawen Li, Chuanzong Li, Xiaodong Lv, Sizhu Wu, Yanlei Hu, Wulin Zhu, Dong Wu, Jiaru Chu, and Lei Jiang. In-situ Reversible Control between Sliding and Pinning for Diverse Liquids under Ultralow Voltage. ACS Nano, 13(5):5742-5752, 20195. Suwan Zhu, Yucheng Bian, Tao Wu, Chao Chen, Yunlong Jiao, Zhiwu Jiang, Zhouchen Huang, Erqiang Li, Jiawen Li, Jiaru Chu, Yanlei Hu, Dong Wu, Lei Jiang. High Performance Bubble Manipulation on Ferrofluid-Infused Laser-Ablated Microstructured Surfaces. Nano Letters 20(7): 5513–5521, 20206. Shengying Fan, Lei Qi, Jiawen Li, Deng Pan, Yiyuan Zhang, Rui Li, Cong Zhang, Dong Wu, Pakming Lau, Yanlei Hu, Guoqiang Bi, Weiping Ding, Jiaru Chu. Guiding the Patterned Growth of Neuronal Axons and Dendrites Using Anisotropic Micropillar Scaffolds. Advanced Healthcare Materials, 10, 2100094, 2021 7. Kai Hu, Liang Yang, Dongdong Jin, Jiawen Li, Shengyun Ji, Chen Xin, Yanlei Hu, Dong Wu, Li Zhang, and Jiaru Chu. Tunable microfluidic device fabricated by femtosecond structured light for particle and cell manipulation. Lab on a chip, 19(23): 3988-3996, 20198. Deng Pan, Ze Cai, Shengyun Ji, Shengying Fan, Pengrui Wang, Zhaoxin Lao, Liang Yang, Jincheng Ni, Chaowei Wang, Jiawen Li, Yanlei Hu, Dong Wu, Shaochen Chen and Jiaru Chu. Microtubes with complex cross-section fabricated by C-shaped Bessel laser beam for mimicking stomata that opens and closes rapidly. ACS Applied Materials &amp; Interfaces,10(42): 36369-36376, 20189. Deng Pan, Shunli Liu, Shengyun Ji, Ze Cai, Jiawen Li, Yaoping Hou, Weijie Zhang, Shengying Fan, Rui Li, Yanlei Hu, Wulin Zhu, Dong Wu, and Jiaru Chu. Efficient fabrication of a high-aspect-ratio AFM tip by one-step exposure of a long focal depth holographic femtosecond axilens beam. Optics Letters, 45(4): 897-900, 202010. Liang Yang, Ayman El-Tamer, Ulf Hinze, Jiawen Li, Yanlei Hu, Wenhao Huang, Jiaru Chu, and Boris N Chichkov. Two-photon polymerization of cylinder microstructures by femtosecond Bessel beams. Applied Physics Letters, 105 (4), 041110, 2014承担科研项目：1.国家自然科学基金面上项目 《基于高效飞秒激光聚合技术的三维玻璃微器件的新型制备方法及其应用》 2021.01-2024.12 主持2.国家自然科学基金面上项目 《多级微血管网络支架的飞秒激光高效加工方法及其在组织血管化中的应用》 2017.01-2020.12 主持 3.国家自然科学基金面上项目 《飞秒激光高效高分辨多尺度全息动态加工方法研究》 2013.01-2016.12  主持 4.安徽省科技重大专项 《高精度三维金属微纳结构的飞秒激光高效加工及装备研制》 2021.04-2024.04  主持5.企业技术合作 《导光板激光高效加工系统及制备工艺研究》 2020.11-2022.05  主持 </t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1164,6 +1295,11 @@
           <t xml:space="preserve">微纳结构设计、应用及其非常规加工技术 非接触式滚压印技术及其动态压模机理研究 </t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>李木军 副教授 硕士生导师电 话：0551-63607547邮箱：lmn@ustc.edu.cn个人简介：李木军，1976年1月生，博士，副教授，硕导。2000年于中国科学技术大学获机械设计制造及其自动化专业学士学位，2007年于中国科学技术大学获精密仪器及机械专业博士学位。2007-2009年在国家同步辐射国家实验室做博士后， 2009年10月加入中国科学技术大学精密机械与精密仪器系任副教授主要研究方向：数字化设计，超精密加工，光学制造，3D打印技术主要研究兴趣在于多尺度、多材料三维微纳结构的设计、应用及其非传统加工技术。结合光刻，超精密加工，3D打印，DMD数字光调控等先进技术，研究和发展了多种以精密成型技术为基础的非传统加工方法，包括滚动型微纳米压印技术，光学玻璃元件的多尺度精密热压成型，有限元工程计算及工艺过程仿真等。学习经历：1995.09－2000.06 中国科学技术大学 精密机械与精密仪器系 学士2000.09－2003.06 中国科学技术大学 精密机械与精密仪器系 硕士2004.02－2007.06 中国科学技术大学 精密机械与精密仪器系 博士工作经历：2007-2009 同步辐射国家实验室 博士后2012-2013 美国俄亥俄州立大学 访问学者2018-2019 美国南加州大学   访问学者2009-至今 中国科学技术大学  副教授学术任职：主要讲授课程：本科学科群基础课《机械制图及CAD》研究生专业基础课《工程中的有限元方法》招生信息：主要论著：(1)     近五年论文发表情况：1、YuxuanSun, Wei Tian, Tao Zhang, Peng Chen, Mujun Li*. Strength and Toughness Enhancement in 3d Printing via Bioinspired Tool Path. Materials and Design, Volume 185: 108239  (2020).2、Tao Zhang, Mujun Li*, Huichun Ye, Cuicui Shi.Ultra-long and high uniform optical needle generated with genetic algorithm based multifocal positions optimization. Optics communications, https://doi.org/10.1016/j.optcom.2019.125178, (2019).3、Chen Yang, Mujun Li*, Jianping Wang, Huichun Ye, Jinfeng Qiu. Residual layer assisted demolding in roll-to-roll UV imprint lithography. Microelectronic Engineering, Volume 217: 111110  ( 2019).4、Shengzhou Huang, Mujun Li*, Lei Wang, Yongsheng Su and Yi Liang.Precise fabrication of large-area microstructures by digital oblique scanning lithography strategy and stage self-calibration technique. Applied Physics Express, 12(9): 096501 (2019)5、Shengzhou Huang, Mujun Li*, Lei Wang, Yongsheng Su and Yi Liang. A self-calibration method with high-accuracy and low-cost for large-area motion stage based on digital grating projection mode. Applied Physics Express, 12(12): 126503 (2019)6、Tao Zhang, Mujun Li*, Jinfeng Qiu, Cuicui Shi, and Peng Chen, Multiple foci modulation with controllable positions and intensity ratios through decomposed optimization, Opt. Lett. 44, 2354-2357 (2019)7、Xiaona Huang, Qiliang Wang, Honglun Yang, Shuai Zhong, Dongsheng Jiao, Kaili Zhang, Mujun Li*, Gang Pei*. Theoretical and experimental studies of impacts of heat shields on heat pipe evacuated tube solar collector. Renewable Energy, Volume 138, 2019, Pages 999-1009, https://doi.org/10.1016/j.renene.2019.02.008.8、Junjie Zhu, Mujun Li*, Jinfeng Qiu, Chao Ji, Jianping Wang, and Huichun Ye. Fabrication of 100% fill-factor aspheric microlens array by dose-modulated lithography and low temperature thermal reflow. Microsystem Technologies, 2018, DOI: 10.1007/s00542-018-4226-2.9、Jinfeng Qiu, Mujun Li*, Huichun Ye, Chen Yang, Cuicui Shi. Fabrication of high fill factor cylindrical microlens array with isolated thermal reflow. Applied Optics, Vol. 57, Issue 25, pp. 7296-7302 (2018).10、Jinfeng Qiu, Mujun Li*, Huichun Ye, Junjie Zhu, Chao Ji. Fabrication of high fill-factor microlens array using spatially constrained thermal reflow. Sensors &amp; Actuators: A. Physical, Volume 279, Pages 17–26, 2018 (DOI: 10.1016/j.sna.2018.05.039).11、Chao Ji，Mujun Li *，Jinfeng Qiu，Junjie Zhu，Huichun Ye. Fabrication of seamless roller mold with smooth surface microstructures by rotation lithography and reflow process. Micro &amp; Nano Letters, 2018, DOI: 10.1049/mnl.2018.015512、Qiu, Jinfeng; Li, Mujun*; Zhu, Junjie; Ji, Chao. Fabrication of microlens array with well-defined shape by spatially constrained thermal reflow. Journal of Micromechanics and Microengineering, 2018, 28(8): 085015,  DOI:10.1088/1361-6439/aabd1d13、Huichun Ye, Zhaolou Cao, Mujun Li*. Rapid fabrication of semiellipsoid microlenses using 3D-printing and Roll-to-Roll imprinting process，Microsystem Technologies, Volume 24, Issue 8, pp 3437–3441, 2018，DOI: 10.1007/s00542-018-3737-114、Jianping Wang, Mujun Li*, Jinfeng Qiu and Youquan Zhou. Filling Angle and its effect on filling process in roll-to-roll ultraviolet imprint lithography. Journal of Micromechanics and Microengineering, vol. 28, issue 3: 035011,  201815、Shengzhou Huang, Mujun Li*, Lianguan Shen, Jinfeng Qiu, Youquan Zhou. Fabrication of high quality aspheric microlens array by dose-modulated lithography and surface thermal reflow. Optics and Laser Technology, Volume 100, 1 March 2018, Pages 298–303.16、Shengzhou Huang, Mujun Li* , Lianguan Shen, Jinfeng Qiu, Youquan Zhou. A simple method for shape modulation in microlens array fabrication via spin-coating process. Microsystem Technologies, 24(4), 1885-1889. 2018.17、Zhou Youquan, Li Mujun*, Shen Lianguan, Ye Huichun, Wang Jianping, Huang Shengzhou. Effect of resin accumulation on filling process in roll-to-roll UV imprint lithography[J]. Journal of Vacuum Science &amp; Technology B, 2017, 35(3): 031602 (Cover Story).18、Huang Shengzhou, Li Mujun*, Shen Lianguan, Qiu Jinfeng, Zhou Youquan. Flexible fabrication of biomimetic compound eye array via two-step thermal reflow of simply pre-modeled hierarchic microstructures[J]. Optics Communications, 2017, 393: 213-218.19、Huang Shengzhou, Li Mujun*, Shen Lianguan, Qiu Jinfeng, Zhou Youquan. Improved slicing strategy for digital micromirror device-based three-dimensional lithography with a single scan[J]. Micro &amp; Nano Letters, 2017, 12(1): 49-52.20、Huichun Ye, LianguanShen, Mujun Li*, Likai Li. A microlens array with different focal length fabricated by roll to roll UV lithography. Polymers &amp; Polymer Composites, Vol. 26, No. 2, 201821、Yang Hu, Lianguan Shen, Jian Zhou and Mujun Li. Numerical Study of Temperature Distribution Control in Precision Glass Molding Furnace. International Journal of Precision Engineering and Manufacturing, Vol. 19, No. 6, pp. 829-835,2018.22、Hujun Wang, Jinghua Liu, Xu Zheng, Xiaohui Rong, Xuwei Zheng, Hongyu Peng, Zhanghua Silber-Li, Mujun Li &amp; Liyu Liu. Three-dimensional virtual surgery models for percutaneous coronary intervention (PCI) optimization strategies. Scientific Reports, 5:10945, 2015.23、Zhou, Jian; Li, Mujun; Hu, Yang; Shi, Tianyi; Ji, Yueliang; Shen, Lianguan. Numerical Evaluation on the Curve Deviation of the Molded Glass Lens[J]. Journal of Manufacturing Science And Engineering-Transactions Of The ASME. 136(5): 051004, 2014.(2)     承担科研项目1、国家自然科学基金面上项目《非接触式滚压印技术及其动态压模机理研究》（51475442），2015年—2018年，主持；2、国家自然科学基金青年基金项目《基于同步辐射光刻的大深宽比微结构滚压印技术研究》（50905173），2010年-2012年，主持；3、教育部中央高校基本科研业务费青年创新基金《非球面玻璃透镜的精密热压成型关键技术研究》，2011年—2012年，主持。3、中国博士后科学基金《基于同步辐射光刻的具有大高宽比微结构的滚动热压印压模加工技术研究》(20080430773)，2008年-2010年，主持.4、国家自然科学基金面上项目《基于准LIGA技术的MEMS制造误差修正方法计算机仿真研究》 (60473133)，2005年-2007年，参与.5、国家自然科学基金面上项目《加速器大功率同轴负载研制及高功率微波吸收材料特性研究》（10775128），2008年-2010年，参与.6、国家自然科学基金面上项目《多尺度精密玻璃透镜的热压成型技术研究》（51075381）　2011年-2013年，参与.(3)专利情况已授权发明专利3项，另有4项发明专利已受理</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1191,6 +1327,11 @@
           <t>智能机器人 机械设计 精密计量技术</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">李永新 副教授 硕士生导师电话：0551-63601479邮箱:liyx@ustc.edu.cn个人简介：1983年6月，中国科技大学精密机械与精密仪器系硕士研究生毕业。1983年7月至今，中国科学技术大学精密机械与精密仪器系教师。主要研究方向：1. 智能机器人 　 2. 机械设计 　 3. 精密计量技术学习经历：1983年6月，中国科技大学精密机械与精密仪器系硕士研究生毕业工作经历：学术任职：招生信息：发表文章：科研项目：1、弧面分度凸轮数控磨削技术及系统(横向)，  2、光栅测角仪(横向)，  3、光栅千分表(横向)，  4、语音识别与应用技术(横向)，  5、智能机器人系统(985) ， 6、高机动越障机器人(863)， 7、具有复合变形机构的XX机器人(总装)， 8、仿生机器人(985)， 9、平面薄膜波导静场光共振增强技术原理与实验研究（面上基金）， 10、偶氮聚合物光致异构转化的近场观察和定量分析（面上基金）， 11、多仿生机器人协作示范系统与关键技术研究—微型机器人子系统（863）， 12、智能XX弹头变形技术（创新基金）， 13、轮廓变形对增强XX机动性的研究（创新基金）， 14、水陆两栖XX的水陆转换机理及复合推进技术研究（创新基金）， 15、超弹性蒙皮结构的变形机制与优化设计研究（面上基金）， 16、多足型XX机器人（总装）， 17、基于SMA多肌耦合柔性腕足的仿生章鱼运动机理研究（面上基金）， 18、激光诱导等离子体光谱分析设备开发和应用（科技部国家重大科学仪器设备开发专项）。主编和参编出版专著：1、《精密机械设计》，机械工业出版社，2000年7月第一版；  2、《精密机械设计基础》，机械工业出版社，2007年8月出版；　3、《智能导弹》，中国宇航出版社，2008年3月出版；　4、《机械系统综合设计》，中国科学技术大学出版社，2013年9月第1版。 </t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1214,6 +1355,11 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>李晓峰  讲师办公电话：邮箱：lxf@ustc.edu.cn个人简介：研究方向： 学习经历： 工作经历： 学术任职： 招生信息： 发表文章：</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1237,6 +1383,11 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>刘维来  讲师办公电话：邮箱：weilai@ustc.edu.cn 个人简介： 研究方向： 学习经历： 工作经历： 学术任职： 招生信息： 发表文章：</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1260,6 +1411,11 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>储建华 中国科学院合肥物质研究院先进制造技术研究所研究员办公电话：邮箱：个人简介：主要研究方向：学习经历：工作经历：学术任职：招生信息：发表文章：</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1287,6 +1443,11 @@
           <t xml:space="preserve">光学工程技术 激光测高和激光连续波测距 </t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>陈结祥 中科院合肥物质科学研究院研究员 博士生导师办公电话：邮箱：个人简介： 中国科学院合肥物质科学研究院安徽光学精密机械研究所研究员，光学工程中心主任，2009 年入选中科院“现有关键技术人才”。 1986年7月毕业于山东大学光学系技术光学专业，获理学学士学位，1992年7月毕业于中国科学院安徽光学精密机械研究所，获光学硕士学位。主要从事光学仪器的设计和开发及光学工程应用技术支撑工作，努力发展和培育高精度光学加工，光学镀膜，机械加工和光机装配与调试技术工程及团队。先后主持完成过多项国家科研项目和几十项横向合作研发项目。在光学工程技术和激光工程技术的研究方面有实际工作经验和技术优势。完成了“空基Mie散射激光雷达机载原理样机”、921工程项目“连续波激光测距系统”、“激光测高仪”等项目的研究。组织实施了空气质量连续自动监测差分吸收光谱分析系统光机部分的设计和制造，解决了批量生产加工工艺和装配工艺，组织实施了用于大气成份监视和测量的车载激光测污激光雷达、微脉冲激光雷达、便携式Mie散射激光雷达、Raman散射水汽测量激光雷达、金属原子层分布共振散射及共振荧光激光雷达、激光诱导荧光雷达和风速测量的Doppler激光雷达等系统的光学工程和机械工程方面的技术工作。以上工作获得了国家高技术主题专家组办公室的表彰，“空基Mie散射激光雷达机载原理样机”课题组被评为先进集体。主要研究方向：1、光学工程技术2、 激光测高和激光连续波测距学习经历：工作经历：学术任职：招生信息：发表文章：</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1310,6 +1471,11 @@
           <t xml:space="preserve">机械系统虚拟样机设计 机电产品的全寿命设计 </t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>冯宝林 助理研究员办公电话：邮箱：个人简介：1998 年毕业于合肥工业大学制冷与低温技术专业(全日制本科)，获学士学位； 1998年7月至2002年9月被分配至信息产业部电子第十六研究所工作，被聘为助理工程师；2002年7月至2005年4月于合肥工业大学机械设计及理论专业攻读硕士学位，学历硕士，2005 年4月获硕士学位；2005 年7月至2008年6月于合肥工业大学机械设计及理论专业攻读博士学位，学历博士，2008 年6月获博士学位。毕业分配至中国科学院智能机械研究所常州机械电子工程研究所工作至今，被聘为助理研究员。主要研究方向：机械系统虚拟样机设计、机电产品的全寿命设计学习经历：1998 年毕业于合肥工业大学制冷与低温技术专业(全日制本科)，获学士学位；2002年7月至2005年4月于合肥工业大学机械设计及理论专业攻读硕士学位，学历硕士，2005 年4月获硕士学位；2005 年7月至2008年6月于合肥工业大学机械设计及理论专业攻读博士学位，学历博士，2008 年6月获博士学位。工作经历：1998年7月至2002年9月被分配至信息产业部电子第十六研究所工作，被聘为助理工程师；博士毕业分配至中国科学院智能机械研究所常州机械电子工程研究所工作至今，被聘为助理研究员。学术任职：招生信息：发表文章：1、赵韩,董晓慧,冯宝林,基于知识仓库技术的企业管理信息系统的研究与应用.现代图书情报技术，农业工程学报, 2007, 5(5)2、董晓慧,赵韩,冯宝林,基于滑动窗口和遗传程序设计组合算法的农机装备水平预测分析,农业机械学报, 2008，39(7)3、赵韩,冯宝林,董晓慧,董晓慧基于ASP的三维CAD/ CAE集成系统关键技术研究,制造业自动化，2008, 30(3)4、赵韩，冯宝林，适用于光学实验的可减压低温恒温器结构设计低温与超导，低温与超导科研项目：1、食品垃圾饲料化处理设备,企业委托项目,冯宝林，经费20万元，2009. 05- 2009.102、特种马车底盘焊接专机,企业委托项目，冯宝林,经费68万元，2009. 03-2010. 013、大型钢构件翻转机械手，企业委托项目，冯宝林,经费10万元，2009. 02-2009. 054、高精度线性冷媒电涡流传感器的产业化关键技术研究，常州市2008 年科技攻关项目，冯宝林,经费15万元，2007.01- 2008.125、相控阵雷达天线的结构精度设计与验证项目,信息产业部电子第38研究所,赵韩,2005. 04- -2006.066、基于三维建模的商用车底盘结构设计与校验，江淮汽车集团股份有限公司，赵韩,2004. 10- -2005. 047、新型皮卡车底盘开发( 三维建模与有限元分析) , 扬子汽车集团股份有限公司,赵韩,经费100万元，2003. 06-2004. 068、可旋转视窗的可减压低温恒温器的结构设计研发,信息产业部电子第16研究所,冯宝林,经费5万元，2001. 06- -2001.11</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1337,6 +1503,11 @@
           <t xml:space="preserve">太阳高能物理 空间天文探测仪器 </t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>甘为群 紫金山天文台研究员 博士生导师个人简介： 1989年南京大学天文系博士毕业，任中科院创新工程“太阳高能物理及相关物理过程研究”团组首席研究员，紫台空间天文研究部主任，2004年-2014年担任紫金山天文台副台长。长期从事天体物理研究，在太阳物理、太阳活动区物理、太阳耀斑物理、空间天文探测仪器和方案等研究方面在国内外核心刊物发表论文90余篇，曾获中国科学院自然科学二等奖（排名第一）、国家自然科学三等奖（排名第二）、国家教委科技进步二等奖（排名第二）、和国家教委科技进步一等奖（排名第四）。1994年获中国青年科学家提名奖，1995年获中国科学院青年科学家奖一等奖，并获国家杰出青年基金。目前领导的研究部正在积极开展和推进几项大的项目，包括：高能小卫星计划，月球及深空探测，太阳高能辐射监测（搭载），以及开展空间探测国际合作。主要研究方向：1. 太阳高能物理2. 空间天文探测仪器学习经历：工作经历：学术任职：招生信息：发表文章：</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1364,6 +1535,11 @@
           <t xml:space="preserve">光学  </t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>侯再红 中科院合肥物质科学研究院研究员 博士生导师办公电话：邮箱：个人简介：中国科学院合肥物质科学研究院安徽光学精密机械研究所研究员。主要研究方向：光学学习经历：工作经历：学术任职：招生信息：发表文章：</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1391,6 +1567,11 @@
           <t xml:space="preserve">光电技术 图像仿真及其场景模拟 </t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>洪津 中科院合肥物质科学研究院研究员 博士生导师办公电话：邮箱：个人简介：中国科学院合肥物质科学研究院安徽光学精密机械研究所研究员，光学遥感中心副主任。1987年毕业于浙江大学信息与电子工程系无线电技术专业，同年分配安徽光机所从事科研工作，长期致力于光学遥感应用技术的研究，曾从事光谱遥感技术研究、偏振成像遥感探测技术研究以及光电测量工业应用技术的研究；多年来完成了数十种型号的光学遥感仪器、光电测量控制设备、工业光电检测仪器设备等的研制、开发工作。入选中科院2016年度关键技术人才项目。主要研究方向：1. 光电技术2. 图像仿真及场景模拟学习经历：工作经历：学术任职：招生信息：发表文章：</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1418,6 +1599,11 @@
           <t xml:space="preserve">光学机械设计及检测  </t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>胡明勇仪器科学与技术学科点博士生导师中科院合肥物质科学研究院研究员 个人简介：中国科学院合肥物质科学研究院安徽光学精密机械研究所研究员，光学镀膜室主任，曾赴俄罗斯进行短期培训及技术交流。拥有多项发明专利，获省级科技奖励，在成果转化方面也取得了较好的社会效益。主要研究方向：光学机械设计及检测学习经历：工作经历：学术任职：招生信息：发表文章：</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1445,6 +1631,11 @@
           <t>MEMS微传感器 痕量快速检测微系统 仿生降噪功能结构与器件</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>孔德义 中科院合肥物质科学研究院研究员 博士生导师办公电话：邮箱：个人简介：中国科学院合肥物质科学研究院智能机械研究所研究员，仿生感知与控制研究中心主任，中国科学技术大学博士生导师。合肥工业大学兼职教授，中国微米纳米技术学会理事，中国仪器仪表学会传感器分会理事。在MEMS领域有将近20年的科研经历，承担过973、863、国家自然科学基金、国际合作项目等多项国家和省部级课题，发表论文100多篇，授权和受理发明专利超过20项。主要研究方向：1. MEMS微传感器2. 痕量快速检测微系统3. 仿生降噪功能结构与器件学习经历：工作经历：学术任职：招生信息：发表文章：</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1472,6 +1663,11 @@
           <t>激光雷达探测新技术研发及数据应用 机载、星载激光雷达系统研制 A-Train卫星序列数据分析和应用</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>刘东 中科院合肥物质科学研究院研究员 博士生导师办公电话：邮箱：个人简介：  中国科学院合肥物质科学研究院安徽光学精密机械研究所研究员，大气光学研究中心副主任。1998年6月毕业于安徽师范大学，获得学士学位。2001年6月和2005年6月毕业于中科院安徽光机所，分别获得硕士和博士学位。2006年9月至2009年8月间，在美国怀俄明大学大气科学系做博士后。2009年9月回国工作至今，主要研究方向为激光雷达探测新技术研发及数据应用，机载、星载激光雷达系统研制，以及A-Train卫星序列数据分析和应用研究。负责承担国自然科学基金课题，973课题，863课题，科学院先导性专项，科学院方向性项目和民用航天预研等课题。参与AD-Net, SKYNET, ACE-Asia和ADEC多项国际合作研究项目，是International SKYNET Committee中国委员。在GRL, JGR, ACP, Optics Letters, Optics Express, Applied Physics B等期刊和会议发表文章50余篇，SCI，EI及ISTP收录的30余篇，国家发明专利3项，软件登记1项，获得安徽省科学技术奖一等奖1次。主要研究方向：1. 激光雷达探测新技术研发及数据应用2. 机载、星载激光雷达系统研制3. A-Train卫星序列数据分析和应用学习经历：工作经历：学术任职：招生信息：发表文章：</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1499,6 +1695,11 @@
           <t xml:space="preserve">环境光学监测  </t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>刘文清 中科院合肥物质科学研究院研究员 博士生导师 中国工程院院士办公电话：邮箱：个人简介：1978年毕业于中国科学技术大学物理系，1995年获希腊克里特大学健康科学学院博士学位。现任中国科学院合肥物质科学研究院研究员，中国科学院安徽光学精密机械研究所所长，国家环境光学监测仪器工程技术研究中心主任，兼任中国光学学会环境光学专业委员会主任等学术职务。刘院士主要从事环境监测技术和应用研究，开展了环境光学监测技术方法创新研究，研发了系列环境监测仪器设备并实现产业化，系统集成了大气污染立体监测技术并进行应用示范，开拓了我国环境光学监测技术新领域。已获42项发明专利授权，在国内外学术期刊发表发表SCI收录论文160余篇。研究成果“空气质量和污染源环境光学监测技术系统与应用”和“大气环境综合立体监测技术研发、系统应用及设备产业化”分别获2007和2011年国家科技进步二等奖，获省部级科学技术一等奖4项，获2012年安徽省重大科技成就奖。2013年当选为中国工程院院士。主要研究方向：环境光学监测学习经历：工作经历：学术任职：招生信息：发表文章：</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1524,6 +1725,11 @@
       <c r="E42" t="inlineStr">
         <is>
           <t>天体物理 太赫兹探测 超导电子学</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>李婧 副研究员 硕士生导师 优秀青年基金获得者办公电话：邮箱：个人简介：女，1978年06月，紫金山天文台副研究员、硕士生导师。李婧副研究员现任中科院紫金山天文台毫米波和亚毫米波技术实验室副研究员，主要从事射电天文、超导电子学等方面的科研工作。她曾获中国科学院院长优秀奖和特别奖；中科院优秀博士学位论文；全国优秀博士学位论文提名论文；国家天文台十大天文进展。主持国家自然科学基金委员会优秀青年科学基金，以及国家863计划项目等。李婧成功研制灵敏度突破五倍量子极限的0.5THz氮化铌高能隙超导SIS混频器，在国际上首次实现该类超导混频器的天文观测，被国际同行认为是该领域的一个重要里程碑。首次实验揭示了NbN超导SIS混频器在10K温区的高灵敏度特性，其量子混频特性不易受约瑟夫森效应及负能隙区光子隧穿效应影响的优势。研究成果作为特邀论文发表于应用超导领域最大国际会议ASC。研制我国首台亚毫米波超导接收机核心部件--铌基超导SIS混频器，实现接近量子极限超高灵敏度，使我国亚毫米波分子谱线观测实现“零”的突破。研制我国迄今最大规模的1024像元太赫兹超导动态电感探测器芯片，保证了重大科研仪器设备研制专项“太赫兹超导阵列成像系统”的顺利实施。主要研究方向：天体物理、太赫兹探测、超导电子学学习经历：工作经历：学术任职：招生信息：发表文章：</t>
         </is>
       </c>
     </row>
@@ -1545,6 +1751,11 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>李涛办公电话：邮箱：个人简介：主要研究方向：学习经历：工作经历：学术任职：招生信息：发表文章：</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1568,6 +1779,11 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>李露 中国科学院合肥物质研究院先进制造技术研究所研究员办公电话：邮箱：个人简介：主要研究方向：学习经历：工作经历：学术任职：招生信息：发表文章：</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1595,6 +1811,11 @@
           <t xml:space="preserve">机器人技术 先进制造 </t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>骆敏舟 中科院合肥物质科学研究院研究员 博士生导师办公电话：邮箱：个人简介：中国科学院合肥物质科学研究院先进制造技术研究所研究员。主要研究方向：1. 机器人技术2. 先进制造学习经历：工作经历：学术任职：招生信息：发表文章：</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1618,6 +1839,7 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1641,6 +1863,11 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>个人简介： 金虎副教授于2011年本科毕业于合肥工业大学测控技术与仪器系，2016年获中国科学技术大学精密机械与精密仪器系博士学位，毕业后留校从事博士后研究工作，2018年至今任精密机械与精密仪器系特任副研究员、副教授，从事形状记忆合金理论探索、驱动应用及多尺度仿生机器人创成研究。近年来发表期刊&amp;会议论文30余篇，含Nat. Mach. Intell., Adv. Mater.，RSC旗舰期刊Mater. Horizons（期刊Back Cover），机械电子顶刊IEEE-ASME Trans. Mechatron. 和仿生工程旗舰期刊Bioinspir. Biomim. 等，多次获得期刊亮点内容以及IEEE机器人国际会议Best Student Paper Award-Finalist。授权30余项发明专利。主持国家自然科学基金、安徽省自然科学基金、安徽省重点研发基金、博士后面上基金和中央高校基本科研业务费专项基金等多项。成果受自然正刊、自然子刊、AM等论文的大量引用及央视、新华社、科技日报等报道。研究方向：智能材料与仿生机器人、机器人控制、康复机器人及智能装备。更多信息详见个人主页http://faculty.ustc.edu.cn/jinhu/zh_CN/index.htm</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1664,6 +1891,7 @@
           <t>原子力显微镜 纳米力学表征 纳米无损检测</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1687,6 +1915,7 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1710,6 +1939,7 @@
           <t>光辐射定标技术 偏振成像机理与技术 光学微腔技术与应用</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1733,6 +1963,7 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1756,6 +1987,7 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1779,6 +2011,7 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1802,6 +2035,7 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1825,6 +2059,7 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1848,6 +2083,7 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1871,6 +2107,7 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1894,6 +2131,7 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1917,6 +2155,7 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1940,6 +2179,7 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1963,6 +2203,7 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1986,6 +2227,7 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2009,6 +2251,7 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2032,6 +2275,7 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2055,6 +2299,7 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2078,6 +2323,7 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2101,6 +2347,7 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
+      <c r="F67" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
